--- a/P911.xlsx
+++ b/P911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7248862-A366-446F-A52A-E7C2CC30F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E96C7C-9F83-4E3A-9CAF-B0A2C8A0C8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="165" windowWidth="13965" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="189">
   <si>
     <t>Price</t>
   </si>
@@ -1628,7 +1628,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1779,6 +1779,17 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,34 +1847,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13584,8 +13582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13638,7 +13636,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="20">
-        <v>45368</v>
+        <v>45576</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>150</v>
@@ -13659,7 +13657,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.94444444444444442</v>
+        <v>0.38263888888888886</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>151</v>
@@ -13683,7 +13681,7 @@
       <c r="E5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="144">
+      <c r="F5" s="125">
         <v>0.754</v>
       </c>
       <c r="I5" s="10"/>
@@ -13701,12 +13699,12 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>89.9</v>
+        <v>69.38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="144">
+      <c r="F6" s="125">
         <v>0.125</v>
       </c>
       <c r="I6" s="10"/>
@@ -13726,8 +13724,8 @@
       <c r="C7" s="15">
         <v>911</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="144"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
       <c r="I7" s="10"/>
       <c r="J7" s="39"/>
       <c r="L7" s="5" t="s">
@@ -13744,10 +13742,10 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>81898.900000000009</v>
+        <v>63205.179999999993</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="144"/>
+      <c r="F8" s="125"/>
       <c r="I8" s="10"/>
       <c r="J8" s="39"/>
       <c r="L8" s="5" t="s">
@@ -13767,7 +13765,7 @@
         <v>7846</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="144"/>
+      <c r="F9" s="125"/>
       <c r="I9" s="10"/>
       <c r="J9" s="39"/>
       <c r="L9" s="5" t="s">
@@ -13824,7 +13822,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>81960.900000000009</v>
+        <v>63267.179999999993</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
@@ -13838,7 +13836,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G16</f>
-        <v>15.883392226148411</v>
+        <v>12.257950530035334</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13851,7 +13849,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H17</f>
-        <v>17.091254752851714</v>
+        <v>13.190114068441064</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13869,7 +13867,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I17</f>
-        <v>14.713584288052374</v>
+        <v>11.355155482815055</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -13892,9 +13890,9 @@
       <c r="E17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="131"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13902,11 +13900,11 @@
       </c>
       <c r="C18" s="52">
         <f>C14/(C16*100)</f>
-        <v>-2.4184125475285154</v>
-      </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="129"/>
+        <v>-1.866401140684409</v>
+      </c>
+      <c r="L18" s="132"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13914,11 +13912,11 @@
       </c>
       <c r="C19" s="52">
         <f>C15/(C17*100)</f>
-        <v>0.9105112159430051</v>
-      </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+        <v>0.7026837392894959</v>
+      </c>
+      <c r="L19" s="132"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="134"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13928,9 +13926,9 @@
         <f>Model!H4/Model!G3-1</f>
         <v>8.3888477670861494E-3</v>
       </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="129"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13940,9 +13938,9 @@
         <f>Model!I4/Model!H4-1</f>
         <v>7.6584291656471848E-2</v>
       </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="129"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13952,9 +13950,9 @@
         <f>Model!G12+Model!G11</f>
         <v>7473</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="134"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13964,9 +13962,9 @@
         <f>Model!G12</f>
         <v>7374</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="134"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13976,9 +13974,9 @@
         <f>Model!G18</f>
         <v>0.28635578583765109</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="134"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13988,9 +13986,9 @@
         <f>Model!G19</f>
         <v>0.12721440907969406</v>
       </c>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="134"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13998,11 +13996,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>11.114849471114729</v>
-      </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="129"/>
+        <v>8.579764035801464</v>
+      </c>
+      <c r="L26" s="132"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="134"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -14015,9 +14013,9 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="129"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="134"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -14030,9 +14028,9 @@
       <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="137"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -14117,13 +14115,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14131,16 +14129,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="151"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="149"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>33</v>
       </c>
@@ -14195,69 +14193,79 @@
       <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="151" t="s">
+      <c r="W2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="148" t="s">
+      <c r="Z2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>33138</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="10">
         <v>37637</v>
       </c>
-      <c r="G3" s="150">
+      <c r="G3" s="15">
         <v>40530</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10">
         <v>8043</v>
       </c>
-      <c r="Q3" s="149">
+      <c r="Q3" s="10">
         <f>17922-P3</f>
         <v>9879</v>
       </c>
-      <c r="R3" s="149">
+      <c r="R3" s="10">
         <f>26750-Q3-P3</f>
         <v>8828</v>
       </c>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10">
         <v>10097</v>
       </c>
-      <c r="U3" s="149">
+      <c r="U3" s="10">
         <f>20431-T3</f>
         <v>10334</v>
       </c>
-      <c r="V3" s="149">
+      <c r="V3" s="10">
         <f>30132-U3-T3</f>
         <v>9701</v>
       </c>
-      <c r="W3" s="152">
+      <c r="W3" s="10">
         <f>G3-V3-U3-T3</f>
         <v>10398</v>
       </c>
       <c r="X3" s="150">
         <v>9011</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y3" s="15">
+        <f>19457-X3</f>
+        <v>10446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
@@ -14283,69 +14291,75 @@
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
       <c r="V4" s="41"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160">
+      <c r="W4" s="10"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="157">
         <v>8770</v>
       </c>
-      <c r="Z4" s="161">
-        <v>10070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="148" t="s">
+      <c r="Z4" s="43">
+        <v>10350</v>
+      </c>
+      <c r="AA4">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>24281</v>
       </c>
-      <c r="F5" s="149">
+      <c r="F5" s="10">
         <v>27089</v>
       </c>
-      <c r="G5" s="150">
+      <c r="G5" s="15">
         <v>28924</v>
       </c>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
         <v>5856</v>
       </c>
-      <c r="Q5" s="149">
+      <c r="Q5" s="10">
         <f>12868-P5</f>
         <v>7012</v>
       </c>
-      <c r="R5" s="149">
+      <c r="R5" s="10">
         <f>19159-Q5-P5</f>
         <v>6291</v>
       </c>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
         <v>7280</v>
       </c>
-      <c r="U5" s="149">
+      <c r="U5" s="10">
         <f>14522-T5</f>
         <v>7242</v>
       </c>
-      <c r="V5" s="149">
+      <c r="V5" s="10">
         <f>21543-U5-T5</f>
         <v>7021</v>
       </c>
-      <c r="W5" s="152">
+      <c r="W5" s="10">
         <f>G5-V5-U5-T5</f>
         <v>7381</v>
       </c>
       <c r="X5" s="150">
         <v>6694</v>
       </c>
-      <c r="Y5" s="149"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y5" s="15">
+        <f>14251-X5</f>
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>173</v>
       </c>
@@ -14389,15 +14403,19 @@
         <f>2010-U6-T6</f>
         <v>717</v>
       </c>
-      <c r="W6" s="152">
+      <c r="W6" s="10">
         <f t="shared" ref="W6:W8" si="0">G6-V6-U6-T6</f>
         <v>859</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="149">
         <v>657</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y6" s="15">
+        <f>1379-X6</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>174</v>
       </c>
@@ -14441,15 +14459,19 @@
         <f>1379-U7-T7</f>
         <v>504</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="10">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="149">
         <v>462</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y7" s="15">
+        <f>952-X7</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -14495,106 +14517,110 @@
         <f>-301-U8-T8</f>
         <v>-190</v>
       </c>
-      <c r="W8" s="152">
+      <c r="W8" s="10">
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="149">
         <v>-84</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="15">
+        <f>-187-X8</f>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="11">
-        <f>C3-SUM(C5:C8)</f>
+        <f t="shared" ref="C9:I9" si="1">C3-SUM(C5:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="11">
-        <f>D3-SUM(D5:D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="11">
-        <f>E3-SUM(E5:E8)</f>
+        <f t="shared" si="1"/>
         <v>5314</v>
       </c>
       <c r="F9" s="11">
-        <f>F3-SUM(F5:F8)</f>
+        <f t="shared" si="1"/>
         <v>6772</v>
       </c>
       <c r="G9" s="14">
-        <f>G3-SUM(G5:G8)</f>
+        <f t="shared" si="1"/>
         <v>7284</v>
       </c>
       <c r="H9" s="11">
-        <f>H3-SUM(H5:H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <f>I3-SUM(I5:I8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
-        <f>L3-SUM(L5:L8)</f>
+        <f t="shared" ref="L9:Y9" si="2">L3-SUM(L5:L8)</f>
         <v>0</v>
       </c>
       <c r="M9" s="11">
-        <f>M3-SUM(M5:M8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <f>N3-SUM(N5:N8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="11">
-        <f>O3-SUM(O5:O8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="11">
-        <f>P3-SUM(P5:P8)</f>
+        <f t="shared" si="2"/>
         <v>1467</v>
       </c>
       <c r="Q9" s="11">
-        <f>Q3-SUM(Q5:Q8)</f>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="R9" s="11">
-        <f>R3-SUM(R5:R8)</f>
+        <f t="shared" si="2"/>
         <v>1569</v>
       </c>
       <c r="S9" s="11">
-        <f>S3-SUM(S5:S8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="11">
-        <f>T3-SUM(T5:T8)</f>
+        <f t="shared" si="2"/>
         <v>1840</v>
       </c>
       <c r="U9" s="11">
-        <f>U3-SUM(U5:U8)</f>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="V9" s="11">
-        <f>V3-SUM(V5:V8)</f>
+        <f t="shared" si="2"/>
         <v>1649</v>
       </c>
-      <c r="W9" s="154">
-        <f>W3-SUM(W5:W8)</f>
+      <c r="W9" s="11">
+        <f t="shared" si="2"/>
         <v>1783</v>
       </c>
-      <c r="X9" s="14">
-        <f>X3-SUM(X5:X8)</f>
+      <c r="X9" s="148">
+        <f t="shared" si="2"/>
         <v>1282</v>
       </c>
-      <c r="Y9" s="11">
-        <f>Y3-SUM(Y5:Y8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y9" s="14">
+        <f t="shared" si="2"/>
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>175</v>
       </c>
@@ -14636,15 +14662,16 @@
         <f>-6-U10-T10</f>
         <v>1</v>
       </c>
-      <c r="W10" s="152">
-        <f t="shared" ref="W10:W11" si="1">G10-V10-U10-T10</f>
+      <c r="W10" s="10">
+        <f t="shared" ref="W10:W11" si="3">G10-V10-U10-T10</f>
         <v>-3</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="149">
         <v>-7</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>176</v>
       </c>
@@ -14690,104 +14717,108 @@
         <f>149-U11-T11</f>
         <v>12</v>
       </c>
-      <c r="W11" s="152">
-        <f t="shared" si="1"/>
+      <c r="W11" s="10">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="149">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="15">
+        <f>33-X11</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="11">
-        <f>C9+SUM(C10:C11)</f>
+        <f t="shared" ref="C12:I12" si="4">C9+SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="11">
-        <f>D9+SUM(D10:D11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>E9+SUM(E10:E11)</f>
+        <f t="shared" si="4"/>
         <v>5729</v>
       </c>
       <c r="F12" s="11">
-        <f>F9+SUM(F10:F11)</f>
+        <f t="shared" si="4"/>
         <v>7081</v>
       </c>
       <c r="G12" s="14">
-        <f>G9+SUM(G10:G11)</f>
+        <f t="shared" si="4"/>
         <v>7374</v>
       </c>
       <c r="H12" s="11">
-        <f>H9+SUM(H10:H11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="11">
-        <f>I9+SUM(I10:I11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>L9+SUM(L10:L11)</f>
+        <f t="shared" ref="L12:Y12" si="5">L9+SUM(L10:L11)</f>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>M9+SUM(M10:M11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <f>N9+SUM(N10:N11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="11">
-        <f>O9+SUM(O10:O11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <f>P9+SUM(P10:P11)</f>
+        <f t="shared" si="5"/>
         <v>1511</v>
       </c>
       <c r="Q12" s="11">
-        <f>Q9+SUM(Q10:Q11)</f>
+        <f t="shared" si="5"/>
         <v>2160</v>
       </c>
       <c r="R12" s="11">
-        <f>R9+SUM(R10:R11)</f>
+        <f t="shared" si="5"/>
         <v>1645</v>
       </c>
       <c r="S12" s="11">
-        <f>S9+SUM(S10:S11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T12" s="11">
-        <f>T9+SUM(T10:T11)</f>
+        <f t="shared" si="5"/>
         <v>1985</v>
       </c>
       <c r="U12" s="11">
-        <f>U9+SUM(U10:U11)</f>
+        <f t="shared" si="5"/>
         <v>1997</v>
       </c>
       <c r="V12" s="11">
-        <f>V9+SUM(V10:V11)</f>
+        <f t="shared" si="5"/>
         <v>1662</v>
       </c>
-      <c r="W12" s="154">
-        <f>W9+SUM(W10:W11)</f>
+      <c r="W12" s="11">
+        <f t="shared" si="5"/>
         <v>1730</v>
       </c>
-      <c r="X12" s="14">
-        <f>X9+SUM(X10:X11)</f>
+      <c r="X12" s="148">
+        <f t="shared" si="5"/>
         <v>1333</v>
       </c>
-      <c r="Y12" s="11">
-        <f>Y9+SUM(Y10:Y11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y12" s="14">
+        <f t="shared" si="5"/>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -14831,15 +14862,19 @@
         <f>1705-U13-T13</f>
         <v>490</v>
       </c>
-      <c r="W13" s="152">
+      <c r="W13" s="10">
         <f>G13-V13-U13-T13</f>
         <v>513</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="149">
         <v>406</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="15">
+        <f>942-X13</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -14866,73 +14901,73 @@
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="L14" s="11">
-        <f>L12-SUM(L13:L13)</f>
+        <f t="shared" ref="L14:Y14" si="6">L12-SUM(L13:L13)</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>M12-SUM(M13:M13)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f>N12-SUM(N13:N13)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <f>O12-SUM(O13:O13)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <f>P12-SUM(P13:P13)</f>
+        <f t="shared" si="6"/>
         <v>1011</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q12-SUM(Q13:Q13)</f>
+        <f t="shared" si="6"/>
         <v>1499</v>
       </c>
       <c r="R14" s="11">
-        <f>R12-SUM(R13:R13)</f>
+        <f t="shared" si="6"/>
         <v>1191</v>
       </c>
       <c r="S14" s="11">
-        <f>S12-SUM(S13:S13)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14" s="11">
-        <f>T12-SUM(T13:T13)</f>
+        <f t="shared" si="6"/>
         <v>1407</v>
       </c>
       <c r="U14" s="11">
-        <f>U12-SUM(U13:U13)</f>
+        <f t="shared" si="6"/>
         <v>1360</v>
       </c>
       <c r="V14" s="11">
-        <f>V12-SUM(V13:V13)</f>
+        <f t="shared" si="6"/>
         <v>1172</v>
       </c>
-      <c r="W14" s="154">
-        <f>W12-SUM(W13:W13)</f>
+      <c r="W14" s="11">
+        <f t="shared" si="6"/>
         <v>1217</v>
       </c>
-      <c r="X14" s="14">
-        <f>X12-SUM(X13:X13)</f>
+      <c r="X14" s="148">
+        <f t="shared" si="6"/>
         <v>927</v>
       </c>
-      <c r="Y14" s="11">
-        <f>Y12-SUM(Y13:Y13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y14" s="14">
+        <f t="shared" si="6"/>
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="153">
+      <c r="E15" s="10">
         <f>E14/E16</f>
         <v>911.51241534988719</v>
       </c>
-      <c r="F15" s="153">
+      <c r="F15" s="10">
         <f>F14/F16</f>
         <v>913.05147058823525</v>
       </c>
@@ -14960,28 +14995,30 @@
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10">
-        <f t="shared" ref="T15:W15" si="2">T14/T16</f>
+        <f t="shared" ref="T15:V15" si="7">T14/T16</f>
         <v>907.74193548387098</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>918.91891891891908</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>908.52713178294528</v>
       </c>
       <c r="W15" s="10">
         <f>W14/W16</f>
         <v>908.20895522388082</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="150">
         <f>X14/X16</f>
         <v>917.82178217821786</v>
       </c>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="15">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -15004,58 +15041,61 @@
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="57"/>
-      <c r="L16" s="155" t="e">
-        <f t="shared" ref="L16:W16" si="3">L14/L15</f>
+      <c r="L16" s="50" t="e">
+        <f t="shared" ref="L16:S16" si="8">L14/L15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="155" t="e">
-        <f t="shared" si="3"/>
+      <c r="M16" s="50" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="155" t="e">
-        <f t="shared" si="3"/>
+      <c r="N16" s="50" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O16" s="155" t="e">
-        <f t="shared" si="3"/>
+      <c r="O16" s="50" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P16" s="155">
+      <c r="P16" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q16" s="155">
+      <c r="Q16" s="50">
         <f>2.74-P16</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="R16" s="155">
+      <c r="R16" s="50">
         <f>4.06-Q16-P16</f>
         <v>1.3199999999999994</v>
       </c>
-      <c r="S16" s="155" t="e">
-        <f t="shared" si="3"/>
+      <c r="S16" s="50" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="155">
+      <c r="T16" s="50">
         <v>1.55</v>
       </c>
-      <c r="U16" s="155">
+      <c r="U16" s="50">
         <f>3.03-T16</f>
         <v>1.4799999999999998</v>
       </c>
-      <c r="V16" s="155">
+      <c r="V16" s="50">
         <f>4.32-U16-T16</f>
         <v>1.2900000000000007</v>
       </c>
-      <c r="W16" s="155">
+      <c r="W16" s="50">
         <f>G16-V16-U16-T16</f>
         <v>1.3399999999999996</v>
       </c>
-      <c r="X16" s="49">
+      <c r="X16" s="151">
         <v>1.01</v>
       </c>
-      <c r="Y16" s="50"/>
-    </row>
-    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="49">
+        <f>Y14/Y15</f>
+        <v>1.3380900109769485</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>63</v>
       </c>
@@ -15081,16 +15121,19 @@
       <c r="T17" s="51"/>
       <c r="U17" s="51"/>
       <c r="V17" s="51"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50">
+      <c r="W17" s="50"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="49">
         <v>0.94</v>
       </c>
       <c r="Z17" s="1">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -15117,59 +15160,67 @@
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="L18" s="3" t="e">
-        <f>1-L5/L3</f>
+        <f t="shared" ref="L18:X18" si="9">1-L5/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="3" t="e">
-        <f>1-M5/M3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="3" t="e">
-        <f>1-N5/N3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="3" t="e">
-        <f>1-O5/O3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="3">
-        <f>1-P5/P3</f>
+        <f t="shared" si="9"/>
         <v>0.2719134651249534</v>
       </c>
       <c r="Q18" s="3">
-        <f>1-Q5/Q3</f>
+        <f t="shared" si="9"/>
         <v>0.29021155987448122</v>
       </c>
       <c r="R18" s="3">
-        <f>1-R5/R3</f>
+        <f t="shared" si="9"/>
         <v>0.28738106026280019</v>
       </c>
       <c r="S18" s="3" t="e">
-        <f>1-S5/S3</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T18" s="3">
-        <f>1-T5/T3</f>
+        <f t="shared" si="9"/>
         <v>0.27899376052292757</v>
       </c>
       <c r="U18" s="3">
-        <f>1-U5/U3</f>
+        <f t="shared" si="9"/>
         <v>0.29920650280627059</v>
       </c>
       <c r="V18" s="3">
-        <f>1-V5/V3</f>
+        <f t="shared" si="9"/>
         <v>0.27626017936295222</v>
       </c>
       <c r="W18" s="40">
-        <f>1-W5/W3</f>
+        <f t="shared" si="9"/>
         <v>0.29015195229851898</v>
       </c>
-      <c r="X18" s="6">
-        <f>1-X5/X3</f>
+      <c r="X18" s="40">
+        <f t="shared" si="9"/>
         <v>0.25713017423149487</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y18" s="6">
+        <f t="shared" ref="Y18:Z18" si="10">1-Y5/Y3</f>
+        <v>0.27656519241815047</v>
+      </c>
+      <c r="Z18" s="40" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -15202,59 +15253,67 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="e">
-        <f>L14/L3</f>
+        <f t="shared" ref="L19:X19" si="11">L14/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="4" t="e">
-        <f>M14/M3</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="4" t="e">
-        <f>N14/N3</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="4" t="e">
-        <f>O14/O3</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="4">
-        <f>P14/P3</f>
+        <f t="shared" si="11"/>
         <v>0.12569936590824318</v>
       </c>
       <c r="Q19" s="4">
-        <f>Q14/Q3</f>
+        <f t="shared" si="11"/>
         <v>0.15173600566858994</v>
       </c>
       <c r="R19" s="4">
-        <f>R14/R3</f>
+        <f t="shared" si="11"/>
         <v>0.13491164476665157</v>
       </c>
       <c r="S19" s="4" t="e">
-        <f>S14/S3</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19" s="4">
-        <f>T14/T3</f>
+        <f t="shared" si="11"/>
         <v>0.13934832128354957</v>
       </c>
       <c r="U19" s="4">
-        <f>U14/U3</f>
+        <f t="shared" si="11"/>
         <v>0.13160441261854075</v>
       </c>
       <c r="V19" s="4">
-        <f>V14/V3</f>
+        <f t="shared" si="11"/>
         <v>0.12081228739305226</v>
       </c>
-      <c r="W19" s="156">
-        <f>W14/W3</f>
+      <c r="W19" s="4">
+        <f t="shared" si="11"/>
         <v>0.11704173879592229</v>
       </c>
-      <c r="X19" s="7">
-        <f>X14/X3</f>
+      <c r="X19" s="152">
+        <f t="shared" si="11"/>
         <v>0.10287426478748196</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y19" s="7">
+        <f t="shared" ref="Y19:Z19" si="12">Y14/Y3</f>
+        <v>0.11669538579360521</v>
+      </c>
+      <c r="Z19" s="152" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>179</v>
       </c>
@@ -15274,60 +15333,68 @@
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
-      <c r="L20" s="156" t="e">
-        <f t="shared" ref="L20:W20" si="4">L13/L12</f>
+      <c r="L20" s="4" t="e">
+        <f t="shared" ref="L20:W20" si="13">L13/L12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="156" t="e">
-        <f t="shared" si="4"/>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="156" t="e">
-        <f t="shared" si="4"/>
+      <c r="N20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="156" t="e">
-        <f t="shared" si="4"/>
+      <c r="O20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="156">
-        <f t="shared" si="4"/>
+      <c r="P20" s="4">
+        <f t="shared" si="13"/>
         <v>0.33090668431502318</v>
       </c>
-      <c r="Q20" s="156">
-        <f t="shared" si="4"/>
+      <c r="Q20" s="4">
+        <f t="shared" si="13"/>
         <v>0.30601851851851852</v>
       </c>
-      <c r="R20" s="156">
-        <f t="shared" si="4"/>
+      <c r="R20" s="4">
+        <f t="shared" si="13"/>
         <v>0.27598784194528875</v>
       </c>
-      <c r="S20" s="156" t="e">
-        <f t="shared" si="4"/>
+      <c r="S20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="156">
-        <f t="shared" si="4"/>
+      <c r="T20" s="4">
+        <f t="shared" si="13"/>
         <v>0.29118387909319898</v>
       </c>
-      <c r="U20" s="156">
-        <f t="shared" si="4"/>
+      <c r="U20" s="4">
+        <f t="shared" si="13"/>
         <v>0.3189784677015523</v>
       </c>
-      <c r="V20" s="156">
-        <f t="shared" si="4"/>
+      <c r="V20" s="4">
+        <f t="shared" si="13"/>
         <v>0.29482551143200963</v>
       </c>
-      <c r="W20" s="156">
-        <f t="shared" si="4"/>
+      <c r="W20" s="4">
+        <f t="shared" si="13"/>
         <v>0.29653179190751444</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="152">
         <f>X13/X12</f>
         <v>0.30457614403600902</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y20" s="7">
+        <f t="shared" ref="Y20:Z20" si="14">Y13/Y12</f>
+        <v>0.3054131054131054</v>
+      </c>
+      <c r="Z20" s="152" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -15361,51 +15428,51 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="e">
-        <f>P3/L3-1</f>
+        <f t="shared" ref="P21:X21" si="15">P3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="4" t="e">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="4" t="e">
-        <f>R3/N3-1</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="4" t="e">
-        <f>S3/O3-1</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="4">
-        <f>T3/P3-1</f>
+        <f t="shared" si="15"/>
         <v>0.25537734676115886</v>
       </c>
       <c r="U21" s="4">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="15"/>
         <v>4.6057293248304543E-2</v>
       </c>
       <c r="V21" s="4">
-        <f>V3/R3-1</f>
+        <f t="shared" si="15"/>
         <v>9.8889895786135051E-2</v>
       </c>
-      <c r="W21" s="156" t="e">
-        <f>W3/S3-1</f>
+      <c r="W21" s="4" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X21" s="162">
-        <f>X3/T3-1</f>
+      <c r="X21" s="153">
+        <f t="shared" si="15"/>
         <v>-0.10755670000990392</v>
       </c>
-      <c r="Y21" s="37">
+      <c r="Y21" s="158">
         <f>Y4/U3-1</f>
         <v>-0.15134507451132184</v>
       </c>
       <c r="Z21" s="37">
         <f>Z4/V3-1</f>
-        <v>3.8037315740645283E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+        <v>6.6900319554685117E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>177</v>
       </c>
@@ -15432,59 +15499,67 @@
       <c r="H22" s="121"/>
       <c r="I22" s="121"/>
       <c r="L22" s="4" t="e">
-        <f>L6/L3</f>
+        <f t="shared" ref="L22:X22" si="16">L6/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="4" t="e">
-        <f>M6/M3</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f>N6/N3</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="4" t="e">
-        <f>O6/O3</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="4">
-        <f>P6/P3</f>
+        <f t="shared" si="16"/>
         <v>5.2840979733930128E-2</v>
       </c>
       <c r="Q22" s="4">
-        <f>Q6/Q3</f>
+        <f t="shared" si="16"/>
         <v>5.3750379593076221E-2</v>
       </c>
       <c r="R22" s="4">
-        <f>R6/R3</f>
+        <f t="shared" si="16"/>
         <v>6.196193928409606E-2</v>
       </c>
       <c r="S22" s="4" t="e">
-        <f>S6/S3</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="4">
-        <f>T6/T3</f>
+        <f t="shared" si="16"/>
         <v>5.1599484995543232E-2</v>
       </c>
       <c r="U22" s="4">
-        <f>U6/U3</f>
+        <f t="shared" si="16"/>
         <v>7.4704857751112838E-2</v>
       </c>
       <c r="V22" s="4">
-        <f>V6/V3</f>
+        <f t="shared" si="16"/>
         <v>7.3909906195237601E-2</v>
       </c>
-      <c r="W22" s="156">
-        <f>W6/W3</f>
+      <c r="W22" s="4">
+        <f t="shared" si="16"/>
         <v>8.2612040777072515E-2</v>
       </c>
-      <c r="X22" s="7">
-        <f>X6/X3</f>
+      <c r="X22" s="152">
+        <f t="shared" si="16"/>
         <v>7.2910886694040611E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y22" s="7">
+        <f t="shared" ref="Y22:Z22" si="17">Y6/Y3</f>
+        <v>6.9117365498755509E-2</v>
+      </c>
+      <c r="Z22" s="152" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>178</v>
       </c>
@@ -15511,59 +15586,67 @@
       <c r="H23" s="121"/>
       <c r="I23" s="121"/>
       <c r="L23" s="4" t="e">
-        <f>L7/L3</f>
+        <f t="shared" ref="L23:X23" si="18">L7/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f>M7/M3</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f>N7/N3</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f>O7/O3</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="4">
-        <f>P7/P3</f>
+        <f t="shared" si="18"/>
         <v>4.7743379336068634E-2</v>
       </c>
       <c r="Q23" s="4">
-        <f>Q7/Q3</f>
+        <f t="shared" si="18"/>
         <v>3.8667881364510576E-2</v>
       </c>
       <c r="R23" s="4">
-        <f>R7/R3</f>
+        <f t="shared" si="18"/>
         <v>4.6669687358405078E-2</v>
       </c>
       <c r="S23" s="4" t="e">
-        <f>S7/S3</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="4">
-        <f>T7/T3</f>
+        <f t="shared" si="18"/>
         <v>5.0411013172229374E-2</v>
       </c>
       <c r="U23" s="4">
-        <f>U7/U3</f>
+        <f t="shared" si="18"/>
         <v>3.5417069866460225E-2</v>
       </c>
       <c r="V23" s="4">
-        <f>V7/V3</f>
+        <f t="shared" si="18"/>
         <v>5.1953406865271619E-2</v>
       </c>
-      <c r="W23" s="156">
-        <f>W7/W3</f>
+      <c r="W23" s="4">
+        <f t="shared" si="18"/>
         <v>3.9238315060588572E-2</v>
       </c>
-      <c r="X23" s="7">
-        <f>X7/X3</f>
+      <c r="X23" s="152">
+        <f t="shared" si="18"/>
         <v>5.1270669182110755E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y23" s="7">
+        <f t="shared" ref="Y23:Z23" si="19">Y7/Y3</f>
+        <v>4.6907907332950409E-2</v>
+      </c>
+      <c r="Z23" s="152" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>129</v>
       </c>
@@ -15585,10 +15668,10 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="7"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="W24" s="4"/>
+      <c r="X24" s="152"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -15622,120 +15705,140 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="e">
-        <f>P14/L14-1</f>
+        <f t="shared" ref="P25:X25" si="20">P14/L14-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="4" t="e">
-        <f>Q14/M14-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="4" t="e">
-        <f>R14/N14-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="4" t="e">
-        <f>S14/O14-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="4">
-        <f>T14/P14-1</f>
+        <f t="shared" si="20"/>
         <v>0.39169139465875369</v>
       </c>
       <c r="U25" s="4">
-        <f>U14/Q14-1</f>
+        <f t="shared" si="20"/>
         <v>-9.2728485657104787E-2</v>
       </c>
       <c r="V25" s="4">
-        <f>V14/R14-1</f>
+        <f t="shared" si="20"/>
         <v>-1.5952980688497043E-2</v>
       </c>
-      <c r="W25" s="156" t="e">
-        <f>W14/S14-1</f>
+      <c r="W25" s="4" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X25" s="162">
-        <f>X14/T14-1</f>
+      <c r="X25" s="153">
+        <f t="shared" si="20"/>
         <v>-0.34115138592750538</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="159">
+        <f t="shared" ref="Y25" si="21">Y14/U14-1</f>
+        <v>-0.10367647058823526</v>
+      </c>
+      <c r="Z25" s="156">
+        <f t="shared" ref="Z25" si="22">Z14/V14-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="154">
-        <f t="shared" ref="C29:G29" si="5">C35+C34-C44</f>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:D29" si="23">C35+C34-C44</f>
         <v>0</v>
       </c>
-      <c r="D29" s="154">
-        <f t="shared" si="5"/>
+      <c r="D29" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E29" s="154">
-        <f t="shared" ref="E29:G29" si="6">E35+E34-E44-E45</f>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29:G29" si="24">E35+E34-E44-E45</f>
         <v>93</v>
       </c>
-      <c r="F29" s="154">
-        <f t="shared" si="6"/>
+      <c r="F29" s="11">
+        <f t="shared" si="24"/>
         <v>-849</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>276</v>
       </c>
-      <c r="L29" s="154">
-        <f t="shared" ref="L29:R29" si="7">L35+L34-L44-L45</f>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29:R29" si="25">L35+L34-L44-L45</f>
         <v>0</v>
       </c>
-      <c r="M29" s="154">
-        <f t="shared" si="7"/>
+      <c r="M29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N29" s="154">
-        <f t="shared" si="7"/>
+      <c r="N29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O29" s="154">
-        <f t="shared" si="7"/>
+      <c r="O29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P29" s="154">
-        <f t="shared" si="7"/>
+      <c r="P29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="154">
-        <f t="shared" si="7"/>
+      <c r="Q29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R29" s="154">
-        <f t="shared" si="7"/>
+      <c r="R29" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S29" s="154">
-        <f t="shared" ref="S29:W29" si="8">S35+S34-S44-S45</f>
+      <c r="S29" s="11">
+        <f t="shared" ref="S29:W29" si="26">S35+S34-S44-S45</f>
         <v>-849</v>
       </c>
-      <c r="T29" s="154">
-        <f t="shared" si="8"/>
+      <c r="T29" s="11">
+        <f t="shared" si="26"/>
         <v>-2660</v>
       </c>
-      <c r="U29" s="154">
-        <f t="shared" si="8"/>
+      <c r="U29" s="11">
+        <f t="shared" si="26"/>
         <v>-4228</v>
       </c>
-      <c r="V29" s="154">
-        <f t="shared" si="8"/>
+      <c r="V29" s="11">
+        <f t="shared" si="26"/>
         <v>-3733</v>
       </c>
-      <c r="W29" s="14">
-        <f t="shared" si="8"/>
+      <c r="W29" s="148">
+        <f t="shared" si="26"/>
         <v>276</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X29" s="148">
         <f>X35+X34-X44-X45</f>
         <v>-62</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y29" s="14">
+        <f t="shared" ref="Y29:AA29" si="27">Y35+Y34-Y44-Y45</f>
+        <v>-1470</v>
+      </c>
+      <c r="Z29" s="148">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="148">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -15770,15 +15873,20 @@
       <c r="V30" s="10">
         <v>6108</v>
       </c>
-      <c r="W30" s="153">
+      <c r="W30" s="10">
         <f>G30</f>
         <v>5947</v>
       </c>
-      <c r="X30" s="15">
+      <c r="X30" s="150">
         <v>6531</v>
       </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y30" s="15">
+        <v>6791</v>
+      </c>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>180</v>
       </c>
@@ -15801,7 +15909,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10">
-        <f t="shared" ref="S31:S36" si="9">F31</f>
+        <f t="shared" ref="S31:S36" si="28">F31</f>
         <v>1538</v>
       </c>
       <c r="T31" s="10">
@@ -15813,15 +15921,20 @@
       <c r="V31" s="10">
         <v>1608</v>
       </c>
-      <c r="W31" s="153">
-        <f t="shared" ref="W31:W36" si="10">G31</f>
+      <c r="W31" s="10">
+        <f t="shared" ref="W31:W36" si="29">G31</f>
         <v>1669</v>
       </c>
-      <c r="X31" s="15">
+      <c r="X31" s="150">
         <v>1678</v>
       </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y31" s="15">
+        <v>1701</v>
+      </c>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -15844,7 +15957,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>7480</v>
       </c>
       <c r="T32" s="10">
@@ -15856,15 +15969,20 @@
       <c r="V32" s="10">
         <v>8192</v>
       </c>
-      <c r="W32" s="153">
-        <f t="shared" si="10"/>
+      <c r="W32" s="10">
+        <f t="shared" si="29"/>
         <v>4537</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="150">
         <v>4168</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y32" s="15">
+        <v>4344</v>
+      </c>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>181</v>
       </c>
@@ -15887,7 +16005,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>87</v>
       </c>
       <c r="T33" s="10">
@@ -15899,15 +16017,20 @@
       <c r="V33" s="10">
         <v>122</v>
       </c>
-      <c r="W33" s="153">
-        <f t="shared" si="10"/>
+      <c r="W33" s="10">
+        <f t="shared" si="29"/>
         <v>235</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X33" s="150">
         <v>350</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="15">
+        <v>292</v>
+      </c>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>182</v>
       </c>
@@ -15930,7 +16053,7 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>1795</v>
       </c>
       <c r="T34" s="10">
@@ -15942,15 +16065,20 @@
       <c r="V34" s="10">
         <v>1777</v>
       </c>
-      <c r="W34" s="153">
-        <f t="shared" si="10"/>
+      <c r="W34" s="10">
+        <f t="shared" si="29"/>
         <v>1826</v>
       </c>
-      <c r="X34" s="15">
+      <c r="X34" s="150">
         <v>1682</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y34" s="15">
+        <v>1895</v>
+      </c>
+      <c r="Z34" s="150"/>
+      <c r="AA34" s="150"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -15973,7 +16101,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>3719</v>
       </c>
       <c r="T35" s="10">
@@ -15985,15 +16113,20 @@
       <c r="V35" s="10">
         <v>2093</v>
       </c>
-      <c r="W35" s="153">
-        <f t="shared" si="10"/>
+      <c r="W35" s="10">
+        <f t="shared" si="29"/>
         <v>5820</v>
       </c>
-      <c r="X35" s="15">
+      <c r="X35" s="150">
         <v>6164</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y35" s="15">
+        <v>4590</v>
+      </c>
+      <c r="Z35" s="150"/>
+      <c r="AA35" s="150"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>183</v>
       </c>
@@ -16016,7 +16149,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>31</v>
       </c>
       <c r="T36" s="10">
@@ -16028,24 +16161,29 @@
       <c r="V36" s="10">
         <v>13</v>
       </c>
-      <c r="W36" s="153">
-        <f t="shared" si="10"/>
+      <c r="W36" s="10">
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X36" s="150">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="150"/>
+      <c r="AA36" s="150"/>
+    </row>
+    <row r="37" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" ref="C37:D37" si="11">SUM(C30:C36)</f>
+        <f t="shared" ref="C37:D37" si="30">SUM(C30:C36)</f>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E37" s="11">
@@ -16053,67 +16191,79 @@
         <v>18552</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:G37" si="12">SUM(F30:F36)</f>
+        <f t="shared" ref="F37:G37" si="31">SUM(F30:F36)</f>
         <v>20154</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>20040</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ref="L37:X37" si="13">SUM(L30:L36)</f>
+        <f t="shared" ref="L37:AA37" si="32">SUM(L30:L36)</f>
         <v>0</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>20154</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>18069</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>19825</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>19913</v>
       </c>
-      <c r="W37" s="154">
-        <f t="shared" si="13"/>
+      <c r="W37" s="11">
+        <f t="shared" si="32"/>
         <v>20040</v>
       </c>
-      <c r="X37" s="14">
-        <f t="shared" si="13"/>
+      <c r="X37" s="148">
+        <f t="shared" si="32"/>
         <v>20579</v>
       </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y37" s="14">
+        <f t="shared" si="32"/>
+        <v>19619</v>
+      </c>
+      <c r="Z37" s="148">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="148">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>73</v>
       </c>
@@ -16136,7 +16286,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="14">F38</f>
+        <f t="shared" ref="S38:S42" si="33">F38</f>
         <v>7473</v>
       </c>
       <c r="T38" s="10">
@@ -16148,15 +16298,20 @@
       <c r="V38" s="10">
         <v>8359</v>
       </c>
-      <c r="W38" s="153">
-        <f t="shared" ref="W38:W42" si="15">G38</f>
+      <c r="W38" s="10">
+        <f t="shared" ref="W38:W42" si="34">G38</f>
         <v>8554</v>
       </c>
-      <c r="X38" s="15">
+      <c r="X38" s="150">
         <v>9041</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="15">
+        <v>9110</v>
+      </c>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>72</v>
       </c>
@@ -16179,7 +16334,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>8924</v>
       </c>
       <c r="T39" s="10">
@@ -16191,15 +16346,20 @@
       <c r="V39" s="10">
         <v>9179</v>
       </c>
-      <c r="W39" s="153">
-        <f t="shared" si="15"/>
+      <c r="W39" s="10">
+        <f t="shared" si="34"/>
         <v>9394</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X39" s="150">
         <v>9454</v>
       </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="15">
+        <v>9570</v>
+      </c>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>184</v>
       </c>
@@ -16222,7 +16382,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>3854</v>
       </c>
       <c r="T40" s="10">
@@ -16234,15 +16394,20 @@
       <c r="V40" s="10">
         <v>4253</v>
       </c>
-      <c r="W40" s="153">
-        <f t="shared" si="15"/>
+      <c r="W40" s="10">
+        <f t="shared" si="34"/>
         <v>4190</v>
       </c>
-      <c r="X40" s="15">
+      <c r="X40" s="150">
         <v>4260</v>
       </c>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="15">
+        <v>4491</v>
+      </c>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>180</v>
       </c>
@@ -16265,7 +16430,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>4382</v>
       </c>
       <c r="T41" s="10">
@@ -16277,58 +16442,68 @@
       <c r="V41" s="10">
         <v>4701</v>
       </c>
-      <c r="W41" s="153">
-        <f t="shared" si="15"/>
+      <c r="W41" s="10">
+        <f t="shared" si="34"/>
         <v>4676</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X41" s="150">
         <v>4728</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="148" t="s">
+      <c r="Y41" s="15">
+        <v>4744</v>
+      </c>
+      <c r="Z41" s="150"/>
+      <c r="AA41" s="150"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
         <v>10462</v>
       </c>
-      <c r="F42" s="149">
+      <c r="F42" s="10">
         <v>2855</v>
       </c>
-      <c r="G42" s="150">
+      <c r="G42" s="15">
         <v>3592</v>
       </c>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
       <c r="S42" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>2855</v>
       </c>
-      <c r="T42" s="149">
+      <c r="T42" s="10">
         <v>3031</v>
       </c>
-      <c r="U42" s="149">
+      <c r="U42" s="10">
         <v>3474</v>
       </c>
-      <c r="V42" s="149">
+      <c r="V42" s="10">
         <v>3412</v>
       </c>
-      <c r="W42" s="153">
-        <f t="shared" si="15"/>
+      <c r="W42" s="10">
+        <f t="shared" si="34"/>
         <v>3592</v>
       </c>
       <c r="X42" s="150">
         <v>3901</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="15">
+        <v>3934</v>
+      </c>
+      <c r="Z42" s="150"/>
+      <c r="AA42" s="150"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -16353,59 +16528,71 @@
         <v>50446</v>
       </c>
       <c r="L43" s="11">
-        <f>SUM(L37:L42)</f>
+        <f t="shared" ref="L43:X43" si="35">SUM(L37:L42)</f>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f>SUM(M37:M42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f>SUM(N37:N42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f>SUM(O37:O42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P43" s="11">
-        <f>SUM(P37:P42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q43" s="11">
-        <f>SUM(Q37:Q42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R43" s="11">
-        <f>SUM(R37:R42)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S43" s="11">
-        <f>SUM(S37:S42)</f>
+        <f t="shared" si="35"/>
         <v>47642</v>
       </c>
       <c r="T43" s="11">
-        <f>SUM(T37:T42)</f>
+        <f t="shared" si="35"/>
         <v>46090</v>
       </c>
       <c r="U43" s="11">
-        <f>SUM(U37:U42)</f>
+        <f t="shared" si="35"/>
         <v>49125</v>
       </c>
       <c r="V43" s="11">
-        <f>SUM(V37:V42)</f>
+        <f t="shared" si="35"/>
         <v>49817</v>
       </c>
-      <c r="W43" s="154">
-        <f>SUM(W37:W42)</f>
+      <c r="W43" s="11">
+        <f t="shared" si="35"/>
         <v>50446</v>
       </c>
-      <c r="X43" s="14">
-        <f>SUM(X37:X42)</f>
+      <c r="X43" s="148">
+        <f t="shared" si="35"/>
         <v>51963</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y43" s="14">
+        <f t="shared" ref="Y43" si="36">SUM(Y37:Y42)</f>
+        <v>51468</v>
+      </c>
+      <c r="Z43" s="148">
+        <f t="shared" ref="Z43" si="37">SUM(Z37:Z42)</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="148">
+        <f t="shared" ref="AA43" si="38">SUM(AA37:AA42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>185</v>
       </c>
@@ -16428,7 +16615,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10">
-        <f t="shared" ref="S44:S47" si="16">F44</f>
+        <f t="shared" ref="S44:S47" si="39">F44</f>
         <v>3464</v>
       </c>
       <c r="T44" s="10">
@@ -16440,15 +16627,20 @@
       <c r="V44" s="10">
         <v>3681</v>
       </c>
-      <c r="W44" s="153">
-        <f t="shared" ref="W44:W47" si="17">G44</f>
+      <c r="W44" s="10">
+        <f t="shared" ref="W44:W47" si="40">G44</f>
         <v>3880</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="150">
         <v>3971</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="15">
+        <v>4072</v>
+      </c>
+      <c r="Z44" s="150"/>
+      <c r="AA44" s="150"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>186</v>
       </c>
@@ -16471,7 +16663,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>2899</v>
       </c>
       <c r="T45" s="10">
@@ -16483,15 +16675,20 @@
       <c r="V45" s="10">
         <v>3922</v>
       </c>
-      <c r="W45" s="153">
-        <f t="shared" si="17"/>
+      <c r="W45" s="10">
+        <f t="shared" si="40"/>
         <v>3490</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="150">
         <v>3937</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="15">
+        <v>3883</v>
+      </c>
+      <c r="Z45" s="150"/>
+      <c r="AA45" s="150"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -16514,7 +16711,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>10204</v>
       </c>
       <c r="T46" s="10">
@@ -16526,15 +16723,20 @@
       <c r="V46" s="10">
         <v>6564</v>
       </c>
-      <c r="W46" s="153">
-        <f t="shared" si="17"/>
+      <c r="W46" s="10">
+        <f t="shared" si="40"/>
         <v>6192</v>
       </c>
-      <c r="X46" s="15">
+      <c r="X46" s="150">
         <v>6170</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y46" s="15">
+        <v>6426</v>
+      </c>
+      <c r="Z46" s="150"/>
+      <c r="AA46" s="150"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>187</v>
       </c>
@@ -16557,7 +16759,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="T47" s="10">
@@ -16569,15 +16771,20 @@
       <c r="V47" s="10">
         <v>5</v>
       </c>
-      <c r="W47" s="153">
-        <f t="shared" si="17"/>
+      <c r="W47" s="10">
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X47" s="150">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z47" s="150"/>
+      <c r="AA47" s="150"/>
+    </row>
+    <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
@@ -16602,60 +16809,71 @@
         <v>13567</v>
       </c>
       <c r="L48" s="11">
-        <f>SUM(L44:L47)</f>
+        <f t="shared" ref="L48:X48" si="41">SUM(L44:L47)</f>
         <v>0</v>
       </c>
       <c r="M48" s="11">
-        <f>SUM(M44:M47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N48" s="11">
-        <f>SUM(N44:N47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O48" s="11">
-        <f>SUM(O44:O47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P48" s="11">
-        <f>SUM(P44:P47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
-        <f>SUM(Q44:Q47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R48" s="11">
-        <f>SUM(R44:R47)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S48" s="11">
-        <f>SUM(S44:S47)</f>
+        <f t="shared" si="41"/>
         <v>16579</v>
       </c>
       <c r="T48" s="11">
-        <f>SUM(T44:T47)</f>
+        <f t="shared" si="41"/>
         <v>13308</v>
       </c>
       <c r="U48" s="11">
-        <f>SUM(U44:U47)</f>
+        <f t="shared" si="41"/>
         <v>14819</v>
       </c>
       <c r="V48" s="11">
-        <f>SUM(V44:V47)</f>
+        <f t="shared" si="41"/>
         <v>14172</v>
       </c>
-      <c r="W48" s="154">
-        <f>SUM(W44:W47)</f>
+      <c r="W48" s="11">
+        <f t="shared" si="41"/>
         <v>13567</v>
       </c>
-      <c r="X48" s="14">
-        <f>SUM(X44:X47)</f>
+      <c r="X48" s="148">
+        <f t="shared" si="41"/>
         <v>14083</v>
       </c>
-      <c r="Y48" s="11"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="14">
+        <f t="shared" ref="Y48" si="42">SUM(Y44:Y47)</f>
+        <v>14387</v>
+      </c>
+      <c r="Z48" s="148">
+        <f t="shared" ref="Z48" si="43">SUM(Z44:Z47)</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="148">
+        <f t="shared" ref="AA48" si="44">SUM(AA44:AA47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>188</v>
       </c>
@@ -16678,7 +16896,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10">
-        <f t="shared" ref="S49:S51" si="18">F49</f>
+        <f t="shared" ref="S49:S51" si="45">F49</f>
         <v>3668</v>
       </c>
       <c r="T49" s="10">
@@ -16690,15 +16908,20 @@
       <c r="V49" s="10">
         <v>3482</v>
       </c>
-      <c r="W49" s="153">
-        <f t="shared" ref="W49:W51" si="19">G49</f>
+      <c r="W49" s="10">
+        <f t="shared" ref="W49:W51" si="46">G49</f>
         <v>4315</v>
       </c>
-      <c r="X49" s="15">
+      <c r="X49" s="150">
         <v>4287</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="15">
+        <v>4187</v>
+      </c>
+      <c r="Z49" s="150"/>
+      <c r="AA49" s="150"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>185</v>
       </c>
@@ -16721,7 +16944,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>6762</v>
       </c>
       <c r="T50" s="10">
@@ -16733,15 +16956,20 @@
       <c r="V50" s="10">
         <v>6762</v>
       </c>
-      <c r="W50" s="153">
-        <f t="shared" si="19"/>
+      <c r="W50" s="10">
+        <f t="shared" si="46"/>
         <v>6537</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="150">
         <v>6546</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="15">
+        <v>6525</v>
+      </c>
+      <c r="Z50" s="150"/>
+      <c r="AA50" s="150"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>25</v>
       </c>
@@ -16764,7 +16992,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v>4633</v>
       </c>
       <c r="T51" s="10">
@@ -16776,15 +17004,20 @@
       <c r="V51" s="10">
         <v>4633</v>
       </c>
-      <c r="W51" s="153">
-        <f t="shared" si="19"/>
+      <c r="W51" s="10">
+        <f t="shared" si="46"/>
         <v>4360</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="150">
         <v>4519</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y51" s="15">
+        <v>4596</v>
+      </c>
+      <c r="Z51" s="150"/>
+      <c r="AA51" s="150"/>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>27</v>
       </c>
@@ -16809,59 +17042,71 @@
         <v>28779</v>
       </c>
       <c r="L52" s="11">
-        <f>SUM(L48:L51)</f>
+        <f t="shared" ref="L52:X52" si="47">SUM(L48:L51)</f>
         <v>0</v>
       </c>
       <c r="M52" s="11">
-        <f>SUM(M48:M51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f>SUM(N48:N51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f>SUM(O48:O51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f>SUM(P48:P51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <f>SUM(Q48:Q51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R52" s="11">
-        <f>SUM(R48:R51)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S52" s="11">
-        <f>SUM(S48:S51)</f>
+        <f t="shared" si="47"/>
         <v>31642</v>
       </c>
       <c r="T52" s="11">
-        <f>SUM(T48:T51)</f>
+        <f t="shared" si="47"/>
         <v>27490</v>
       </c>
       <c r="U52" s="11">
-        <f>SUM(U48:U51)</f>
+        <f t="shared" si="47"/>
         <v>29692</v>
       </c>
       <c r="V52" s="11">
-        <f>SUM(V48:V51)</f>
+        <f t="shared" si="47"/>
         <v>29049</v>
       </c>
-      <c r="W52" s="154">
-        <f>SUM(W48:W51)</f>
+      <c r="W52" s="11">
+        <f t="shared" si="47"/>
         <v>28779</v>
       </c>
-      <c r="X52" s="14">
-        <f>SUM(X48:X51)</f>
+      <c r="X52" s="148">
+        <f t="shared" si="47"/>
         <v>29435</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="14">
+        <f t="shared" ref="Y52" si="48">SUM(Y48:Y51)</f>
+        <v>29695</v>
+      </c>
+      <c r="Z52" s="148">
+        <f t="shared" ref="Z52" si="49">SUM(Z48:Z51)</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="148">
+        <f t="shared" ref="AA52" si="50">SUM(AA48:AA51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>74</v>
       </c>
@@ -16886,59 +17131,71 @@
         <v>21667</v>
       </c>
       <c r="L53" s="10">
-        <f>L43-L52</f>
+        <f t="shared" ref="L53:X53" si="51">L43-L52</f>
         <v>0</v>
       </c>
       <c r="M53" s="10">
-        <f>M43-M52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N53" s="10">
-        <f>N43-N52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O53" s="10">
-        <f>O43-O52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P53" s="10">
-        <f>P43-P52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q53" s="10">
-        <f>Q43-Q52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R53" s="10">
-        <f>R43-R52</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S53" s="10">
-        <f>S43-S52</f>
+        <f t="shared" si="51"/>
         <v>16000</v>
       </c>
       <c r="T53" s="10">
-        <f>T43-T52</f>
+        <f t="shared" si="51"/>
         <v>18600</v>
       </c>
       <c r="U53" s="10">
-        <f>U43-U52</f>
+        <f t="shared" si="51"/>
         <v>19433</v>
       </c>
       <c r="V53" s="10">
-        <f>V43-V52</f>
+        <f t="shared" si="51"/>
         <v>20768</v>
       </c>
-      <c r="W53" s="153">
-        <f>W43-W52</f>
+      <c r="W53" s="10">
+        <f t="shared" si="51"/>
         <v>21667</v>
       </c>
-      <c r="X53" s="15">
-        <f>X43-X52</f>
+      <c r="X53" s="150">
+        <f t="shared" si="51"/>
         <v>22528</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="15">
+        <f t="shared" ref="Y53" si="52">Y43-Y52</f>
+        <v>21773</v>
+      </c>
+      <c r="Z53" s="150">
+        <f t="shared" ref="Z53" si="53">Z43-Z52</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="150">
+        <f t="shared" ref="AA53" si="54">AA43-AA52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
@@ -16947,18 +17204,18 @@
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
       <c r="G55" s="54"/>
-      <c r="W55" s="157"/>
-      <c r="X55" s="16"/>
-    </row>
-    <row r="73" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X55" s="154"/>
+      <c r="Y55" s="16"/>
+    </row>
+    <row r="73" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G73" s="42"/>
-      <c r="W73" s="158"/>
-      <c r="X73" s="42"/>
-    </row>
-    <row r="74" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X73" s="155"/>
+      <c r="Y73" s="42"/>
+    </row>
+    <row r="74" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
-      <c r="W74" s="157"/>
-      <c r="X74" s="16"/>
+      <c r="X74" s="154"/>
+      <c r="Y74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17002,10 +17259,10 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17105,7 +17362,10 @@
       <c r="R2" s="10">
         <v>11274</v>
       </c>
-      <c r="S2" s="10"/>
+      <c r="S2" s="10">
+        <f>20811-R2</f>
+        <v>9537</v>
+      </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
@@ -17148,7 +17408,10 @@
       <c r="R3" s="10">
         <v>20044</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="10">
+        <f>38611-R3</f>
+        <v>18567</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
@@ -17191,7 +17454,10 @@
       <c r="R4" s="10">
         <v>15087</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="10">
+        <f>39558-R4</f>
+        <v>24471</v>
+      </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
@@ -17234,7 +17500,10 @@
       <c r="R5" s="10">
         <v>16340</v>
       </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="10">
+        <f>29551-R5</f>
+        <v>13211</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
@@ -17277,7 +17546,10 @@
       <c r="R6" s="10">
         <v>14895</v>
       </c>
-      <c r="S6" s="10"/>
+      <c r="S6" s="10">
+        <f>27414-R6</f>
+        <v>12519</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
@@ -17331,7 +17603,7 @@
       </c>
       <c r="S7" s="11">
         <f>SUM(S2:S6)</f>
-        <v>0</v>
+        <v>78305</v>
       </c>
       <c r="T7" s="11">
         <f>SUM(T2:T6)</f>
@@ -17400,7 +17672,10 @@
         <f>R2/N2-1</f>
         <v>0.36704256093124776</v>
       </c>
-      <c r="S9" s="10"/>
+      <c r="S9" s="3">
+        <f>S2/O2-1</f>
+        <v>7.507609063239773E-2</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
@@ -17440,7 +17715,10 @@
         <f>R4/N4-1</f>
         <v>-0.23225281156175259</v>
       </c>
-      <c r="S10" s="10"/>
+      <c r="S10" s="3">
+        <f>S4/O4-1</f>
+        <v>9.8043614825450875E-2</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
@@ -17476,11 +17754,14 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="160">
         <f>R5/N5-1</f>
         <v>-0.23519775333489357</v>
       </c>
-      <c r="S11" s="10"/>
+      <c r="S11" s="160">
+        <f>S5/O5-1</f>
+        <v>-0.41198201807094847</v>
+      </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
@@ -17507,7 +17788,7 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="146">
+      <c r="A13" s="127">
         <v>911</v>
       </c>
       <c r="B13" s="10"/>
@@ -17548,12 +17829,15 @@
       <c r="R13" s="10">
         <v>12892</v>
       </c>
-      <c r="S13" s="10"/>
+      <c r="S13" s="10">
+        <f>28212-R13</f>
+        <v>15320</v>
+      </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="146">
+      <c r="A14" s="127">
         <v>718</v>
       </c>
       <c r="B14" s="10"/>
@@ -17594,7 +17878,10 @@
       <c r="R14" s="10">
         <v>5772</v>
       </c>
-      <c r="S14" s="10"/>
+      <c r="S14" s="10">
+        <f>11886-R14</f>
+        <v>6114</v>
+      </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
@@ -17640,7 +17927,10 @@
       <c r="R15" s="10">
         <v>20576</v>
       </c>
-      <c r="S15" s="10"/>
+      <c r="S15" s="10">
+        <f>39167-R15</f>
+        <v>18591</v>
+      </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
     </row>
@@ -17686,7 +17976,10 @@
       <c r="R16" s="10">
         <v>28025</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="10">
+        <f>54587-R16</f>
+        <v>26562</v>
+      </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
@@ -17732,7 +18025,10 @@
       <c r="R17" s="10">
         <v>6139</v>
       </c>
-      <c r="S17" s="10"/>
+      <c r="S17" s="10">
+        <f>13255-R17</f>
+        <v>7116</v>
+      </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
@@ -17778,7 +18074,10 @@
       <c r="R18" s="10">
         <v>4236</v>
       </c>
-      <c r="S18" s="10"/>
+      <c r="S18" s="10">
+        <f>8838-R18</f>
+        <v>4602</v>
+      </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
     </row>
@@ -17832,7 +18131,7 @@
       </c>
       <c r="S19" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>78305</v>
       </c>
       <c r="T19" s="11">
         <f t="shared" si="4"/>
@@ -17867,6 +18166,10 @@
         <f>R13/N13-1</f>
         <v>0.16532586097803481</v>
       </c>
+      <c r="S21" s="3">
+        <f>S13/O13-1</f>
+        <v>1.7196733284642551E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -17892,6 +18195,10 @@
         <f>((R15+R16)/(N15+N16))-1</f>
         <v>2.822265005183322E-2</v>
       </c>
+      <c r="S22" s="160">
+        <f>((S15+S16)/(O15+O16))-1</f>
+        <v>-4.6842016380984508E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -17917,14 +18224,18 @@
         <f>R18/N18-1</f>
         <v>-0.53715034965034958</v>
       </c>
+      <c r="S23" s="160">
+        <f>S18/O18-1</f>
+        <v>-0.47935286797149002</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="128" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="146">
+      <c r="A27" s="127">
         <v>911</v>
       </c>
       <c r="B27" s="10"/>
@@ -17962,10 +18273,13 @@
       <c r="R27" s="10">
         <v>12919</v>
       </c>
-      <c r="S27" s="10"/>
+      <c r="S27" s="10">
+        <f>26346-R27</f>
+        <v>13427</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="146">
+      <c r="A28" s="127">
         <v>718</v>
       </c>
       <c r="B28" s="10"/>
@@ -18003,7 +18317,10 @@
       <c r="R28" s="10">
         <v>6002</v>
       </c>
-      <c r="S28" s="10"/>
+      <c r="S28" s="10">
+        <f>11955-R28</f>
+        <v>5953</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -18044,7 +18361,10 @@
       <c r="R29" s="10">
         <v>19323</v>
       </c>
-      <c r="S29" s="10"/>
+      <c r="S29" s="10">
+        <f>36600-R29</f>
+        <v>17277</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -18085,7 +18405,10 @@
       <c r="R30" s="10">
         <v>23987</v>
       </c>
-      <c r="S30" s="10"/>
+      <c r="S30" s="10">
+        <f>52769-R30</f>
+        <v>28782</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -18126,7 +18449,10 @@
       <c r="R31" s="10">
         <v>4101</v>
       </c>
-      <c r="S31" s="10"/>
+      <c r="S31" s="10">
+        <f>15092-R31</f>
+        <v>10991</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -18167,7 +18493,10 @@
       <c r="R32" s="10">
         <v>4273</v>
       </c>
-      <c r="S32" s="10"/>
+      <c r="S32" s="10">
+        <f>9182-R32</f>
+        <v>4909</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -18219,7 +18548,7 @@
       </c>
       <c r="S33" s="11">
         <f t="shared" ref="S33" si="16">SUM(S27:S32)</f>
-        <v>0</v>
+        <v>81339</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -18246,6 +18575,10 @@
         <f>R27/N27-1</f>
         <v>6.5446045968056143E-3</v>
       </c>
+      <c r="S35" s="3">
+        <f>S27/O27-1</f>
+        <v>-0.10611810132481192</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -18271,6 +18604,10 @@
         <f>((R29+R30)/(N29+N30))-1</f>
         <v>-9.9471867592631047E-2</v>
       </c>
+      <c r="S36" s="3">
+        <f>((S29+S30)/(O29+O30))-1</f>
+        <v>2.0200677785899401E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -18292,9 +18629,13 @@
         <f t="shared" ref="Q37" si="28">Q32/M32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="160">
         <f>R32/N32-1</f>
         <v>-0.50285049447353114</v>
+      </c>
+      <c r="S37" s="160">
+        <f>S32/O32-1</f>
+        <v>-0.5286153255233339</v>
       </c>
     </row>
   </sheetData>
@@ -27003,14 +27344,14 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -27019,7 +27360,7 @@
       <c r="C2" s="18">
         <v>89.800003000000004</v>
       </c>
-      <c r="D2" s="143">
+      <c r="D2" s="124">
         <f>C2/C3-1</f>
         <v>-1.3344639976526906E-3</v>
       </c>
@@ -27037,7 +27378,7 @@
       <c r="C3" s="18">
         <v>89.919998000000007</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="124">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-3.1451940174577309E-2</v>
       </c>
@@ -27067,7 +27408,7 @@
       <c r="C4" s="18">
         <v>92.839995999999999</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="124">
         <f t="shared" si="0"/>
         <v>-2.792717568049774E-3</v>
       </c>
@@ -27103,7 +27444,7 @@
       <c r="C5" s="18">
         <v>93.099997999999999</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="124">
         <f t="shared" si="0"/>
         <v>8.8859883927827621E-3</v>
       </c>
@@ -27139,7 +27480,7 @@
       <c r="C6" s="18">
         <v>92.279999000000004</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="124">
         <f t="shared" si="0"/>
         <v>-1.3259174933463735E-2</v>
       </c>
@@ -27175,7 +27516,7 @@
       <c r="C7" s="18">
         <v>93.519997000000004</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="124">
         <f t="shared" si="0"/>
         <v>5.8397418985995708E-2</v>
       </c>
@@ -27211,7 +27552,7 @@
       <c r="C8" s="18">
         <v>88.360000999999997</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="124">
         <f t="shared" si="0"/>
         <v>7.5986334291780366E-2</v>
       </c>
@@ -27247,7 +27588,7 @@
       <c r="C9" s="18">
         <v>82.120002999999997</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="124">
         <f t="shared" si="0"/>
         <v>-5.0196577032113998E-2</v>
       </c>
@@ -27283,7 +27624,7 @@
       <c r="C10" s="18">
         <v>86.459998999999996</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="124">
         <f t="shared" si="0"/>
         <v>4.5971386597077668E-2</v>
       </c>
@@ -27319,7 +27660,7 @@
       <c r="C11" s="18">
         <v>82.660004000000001</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="124">
         <f t="shared" si="0"/>
         <v>2.5303906277453381E-2</v>
       </c>
@@ -27355,7 +27696,7 @@
       <c r="C12" s="18">
         <v>80.620002999999997</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="124">
         <f t="shared" si="0"/>
         <v>4.7358550532365928E-3</v>
       </c>
@@ -27391,7 +27732,7 @@
       <c r="C13" s="18">
         <v>80.239998</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="124">
         <f t="shared" si="0"/>
         <v>-2.1463439024390296E-2</v>
       </c>
@@ -27427,7 +27768,7 @@
       <c r="C14" s="18">
         <v>82</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="124">
         <f t="shared" si="0"/>
         <v>7.2175690160472428E-2</v>
       </c>
@@ -27463,7 +27804,7 @@
       <c r="C15" s="18">
         <v>76.480002999999996</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="124">
         <f t="shared" si="0"/>
         <v>3.6595337985840803E-2</v>
       </c>
@@ -27495,7 +27836,7 @@
       <c r="C16" s="18">
         <v>73.779999000000004</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="124">
         <f t="shared" si="0"/>
         <v>-2.2781470198675491E-2</v>
       </c>
@@ -27509,14 +27850,14 @@
       <c r="C17" s="18">
         <v>75.5</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D17" s="124">
         <f t="shared" si="0"/>
         <v>-1.5645333076088619E-2</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="137"/>
+      <c r="I17" s="142"/>
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -27526,12 +27867,12 @@
       <c r="C18" s="18">
         <v>76.699996999999996</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="124">
         <f t="shared" si="0"/>
         <v>-4.0050124153939382E-2</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
       <c r="M18" s="84"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -27541,7 +27882,7 @@
       <c r="C19" s="18">
         <v>79.900002000000001</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="124">
         <f t="shared" si="0"/>
         <v>-2.2477521916144383E-3</v>
       </c>
@@ -27561,7 +27902,7 @@
       <c r="C20" s="18">
         <v>80.080001999999993</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="124">
         <f t="shared" si="0"/>
         <v>-1.135800000000009E-2</v>
       </c>
@@ -27581,7 +27922,7 @@
       <c r="C21" s="18">
         <v>81</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="124">
         <f t="shared" si="0"/>
         <v>-3.0636645060714285E-2</v>
       </c>
@@ -27601,7 +27942,7 @@
       <c r="C22" s="18">
         <v>83.559997999999993</v>
       </c>
-      <c r="D22" s="143">
+      <c r="D22" s="124">
         <f t="shared" si="0"/>
         <v>-4.0524909641838081E-3</v>
       </c>
@@ -27621,7 +27962,7 @@
       <c r="C23" s="18">
         <v>83.900002000000001</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="124">
         <f t="shared" si="0"/>
         <v>-2.5551638224196038E-2</v>
       </c>
@@ -27641,7 +27982,7 @@
       <c r="C24" s="18">
         <v>86.099997999999999</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="124">
         <f t="shared" si="0"/>
         <v>-5.3013639529556622E-2</v>
       </c>
@@ -27661,7 +28002,7 @@
       <c r="C25" s="18">
         <v>90.919998000000007</v>
       </c>
-      <c r="D25" s="143">
+      <c r="D25" s="124">
         <f t="shared" si="0"/>
         <v>4.0036605811864634E-2</v>
       </c>
@@ -27681,7 +28022,7 @@
       <c r="C26" s="18">
         <v>87.419998000000007</v>
       </c>
-      <c r="D26" s="143">
+      <c r="D26" s="124">
         <f t="shared" si="0"/>
         <v>-3.0175294321891366E-2</v>
       </c>
@@ -27701,7 +28042,7 @@
       <c r="C27" s="18">
         <v>90.139999000000003</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="124">
         <f t="shared" si="0"/>
         <v>9.7661905833101414E-2</v>
       </c>
@@ -27721,7 +28062,7 @@
       <c r="C28" s="18">
         <v>82.120002999999997</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="124">
         <f t="shared" si="0"/>
         <v>-7.8545778325433857E-2</v>
       </c>
@@ -27741,7 +28082,7 @@
       <c r="C29" s="18">
         <v>89.120002999999997</v>
       </c>
-      <c r="D29" s="143">
+      <c r="D29" s="124">
         <f t="shared" si="0"/>
         <v>-1.6335486011820888E-2</v>
       </c>
@@ -27761,7 +28102,7 @@
       <c r="C30" s="18">
         <v>90.599997999999999</v>
       </c>
-      <c r="D30" s="143">
+      <c r="D30" s="124">
         <f t="shared" si="0"/>
         <v>1.5467350196510354E-2</v>
       </c>
@@ -27781,7 +28122,7 @@
       <c r="C31" s="18">
         <v>89.220000999999996</v>
       </c>
-      <c r="D31" s="143">
+      <c r="D31" s="124">
         <f t="shared" si="0"/>
         <v>2.4719213483146429E-3</v>
       </c>
@@ -27801,7 +28142,7 @@
       <c r="C32" s="18">
         <v>89</v>
       </c>
-      <c r="D32" s="143">
+      <c r="D32" s="124">
         <f t="shared" si="0"/>
         <v>-4.2598956998697868E-2</v>
       </c>
@@ -27815,7 +28156,7 @@
       <c r="C33" s="18">
         <v>92.959998999999996</v>
       </c>
-      <c r="D33" s="143">
+      <c r="D33" s="124">
         <f t="shared" si="0"/>
         <v>-6.1957609726692509E-2</v>
       </c>
@@ -27841,7 +28182,7 @@
       <c r="C34" s="18">
         <v>99.099997999999999</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="124">
         <f t="shared" si="0"/>
         <v>-2.1717719001449587E-2</v>
       </c>
@@ -27873,7 +28214,7 @@
       <c r="C35" s="18">
         <v>101.300003</v>
       </c>
-      <c r="D35" s="143">
+      <c r="D35" s="124">
         <f t="shared" si="0"/>
         <v>3.1988578566072734E-2</v>
       </c>
@@ -27905,7 +28246,7 @@
       <c r="C36" s="18">
         <v>98.160004000000001</v>
       </c>
-      <c r="D36" s="143">
+      <c r="D36" s="124">
         <f t="shared" si="0"/>
         <v>-1.889054416120306E-2</v>
       </c>
@@ -27936,7 +28277,7 @@
       <c r="C37" s="18">
         <v>100.050003</v>
       </c>
-      <c r="D37" s="143">
+      <c r="D37" s="124">
         <f t="shared" si="0"/>
         <v>-2.0078305976068633E-2</v>
       </c>
@@ -27954,7 +28295,7 @@
       <c r="C38" s="18">
         <v>102.099998</v>
       </c>
-      <c r="D38" s="143">
+      <c r="D38" s="124">
         <f t="shared" si="0"/>
         <v>-2.483284693885901E-2</v>
       </c>
@@ -27984,7 +28325,7 @@
       <c r="C39" s="18">
         <v>104.699997</v>
       </c>
-      <c r="D39" s="143">
+      <c r="D39" s="124">
         <f t="shared" si="0"/>
         <v>-5.2488714932126701E-2</v>
       </c>
@@ -28018,7 +28359,7 @@
       <c r="C40" s="18">
         <v>110.5</v>
       </c>
-      <c r="D40" s="143">
+      <c r="D40" s="124">
         <f t="shared" si="0"/>
         <v>-1.5590200445434244E-2</v>
       </c>
@@ -28052,7 +28393,7 @@
       <c r="C41" s="18">
         <v>112.25</v>
       </c>
-      <c r="D41" s="143">
+      <c r="D41" s="124">
         <f t="shared" si="0"/>
         <v>9.4424732763258579E-3</v>
       </c>
@@ -28086,7 +28427,7 @@
       <c r="C42" s="18">
         <v>111.199997</v>
       </c>
-      <c r="D42" s="143">
+      <c r="D42" s="124">
         <f t="shared" si="0"/>
         <v>-3.0514386151204498E-2</v>
       </c>
@@ -28100,18 +28441,18 @@
       <c r="C43" s="18">
         <v>114.699997</v>
       </c>
-      <c r="D43" s="143">
+      <c r="D43" s="124">
         <f t="shared" si="0"/>
         <v>3.9420018838604687E-2</v>
       </c>
-      <c r="H43" s="140" t="s">
+      <c r="H43" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="142"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -28120,7 +28461,7 @@
       <c r="C44" s="18">
         <v>110.349998</v>
       </c>
-      <c r="D44" s="143">
+      <c r="D44" s="124">
         <f t="shared" si="0"/>
         <v>-2.0846311075899293E-2</v>
       </c>
@@ -28153,7 +28494,7 @@
       <c r="C45" s="18">
         <v>112.699364</v>
       </c>
-      <c r="D45" s="143">
+      <c r="D45" s="124">
         <f t="shared" si="0"/>
         <v>4.9354297557943294E-2</v>
       </c>
@@ -28186,7 +28527,7 @@
       <c r="C46" s="18">
         <v>107.39877300000001</v>
       </c>
-      <c r="D46" s="143">
+      <c r="D46" s="124">
         <f t="shared" si="0"/>
         <v>-5.4513767189525608E-2</v>
       </c>
@@ -28219,7 +28560,7 @@
       <c r="C47" s="18">
         <v>113.591049</v>
       </c>
-      <c r="D47" s="143">
+      <c r="D47" s="124">
         <f t="shared" si="0"/>
         <v>-1.7566355043448945E-2</v>
       </c>
@@ -28252,7 +28593,7 @@
       <c r="C48" s="18">
         <v>115.622108</v>
       </c>
-      <c r="D48" s="143">
+      <c r="D48" s="124">
         <f t="shared" si="0"/>
         <v>-1.1016969166471546E-2</v>
       </c>
@@ -28285,7 +28626,7 @@
       <c r="C49" s="18">
         <v>116.91010300000001</v>
       </c>
-      <c r="D49" s="143">
+      <c r="D49" s="124">
         <f t="shared" si="0"/>
         <v>4.2390690135718501E-4</v>
       </c>
@@ -28318,7 +28659,7 @@
       <c r="C50" s="18">
         <v>116.86056499999999</v>
       </c>
-      <c r="D50" s="143">
+      <c r="D50" s="124">
         <f t="shared" si="0"/>
         <v>-3.8007044320816918E-3</v>
       </c>
@@ -28351,7 +28692,7 @@
       <c r="C51" s="18">
         <v>117.30641199999999</v>
       </c>
-      <c r="D51" s="143">
+      <c r="D51" s="124">
         <f t="shared" si="0"/>
         <v>3.5417608318533356E-2</v>
       </c>
@@ -28384,7 +28725,7 @@
       <c r="C52" s="18">
         <v>113.29381600000001</v>
       </c>
-      <c r="D52" s="143">
+      <c r="D52" s="124">
         <f t="shared" si="0"/>
         <v>-9.5279000184396168E-3</v>
       </c>
@@ -28417,7 +28758,7 @@
       <c r="C53" s="18">
         <v>114.383652</v>
       </c>
-      <c r="D53" s="143">
+      <c r="D53" s="124">
         <f t="shared" si="0"/>
         <v>1.807755356458518E-2</v>
       </c>
@@ -28450,7 +28791,7 @@
       <c r="C54" s="18">
         <v>112.352592</v>
       </c>
-      <c r="D54" s="143">
+      <c r="D54" s="124">
         <f t="shared" si="0"/>
         <v>-1.3913036930066403E-2</v>
       </c>
@@ -28483,7 +28824,7 @@
       <c r="C55" s="18">
         <v>113.93781300000001</v>
       </c>
-      <c r="D55" s="143">
+      <c r="D55" s="124">
         <f t="shared" si="0"/>
         <v>-3.2800713836315332E-2</v>
       </c>
@@ -28516,7 +28857,7 @@
       <c r="C56" s="18">
         <v>117.801796</v>
       </c>
-      <c r="D56" s="143">
+      <c r="D56" s="124">
         <f t="shared" si="0"/>
         <v>8.4818019065802108E-3</v>
       </c>
@@ -28549,7 +28890,7 @@
       <c r="C57" s="18">
         <v>116.81102799999999</v>
       </c>
-      <c r="D57" s="143">
+      <c r="D57" s="124">
         <f t="shared" si="0"/>
         <v>-8.4744600729680375E-4</v>
       </c>
@@ -28577,7 +28918,7 @@
       <c r="C58" s="18">
         <v>116.91010300000001</v>
       </c>
-      <c r="D58" s="143">
+      <c r="D58" s="124">
         <f t="shared" si="0"/>
         <v>4.9822016218267651E-2</v>
       </c>
@@ -28605,7 +28946,7 @@
       <c r="C59" s="18">
         <v>111.36183200000001</v>
       </c>
-      <c r="D59" s="143">
+      <c r="D59" s="124">
         <f t="shared" si="0"/>
         <v>-1.9197138695643767E-2</v>
       </c>
@@ -28617,7 +28958,7 @@
       <c r="C60" s="18">
         <v>113.541504</v>
       </c>
-      <c r="D60" s="143">
+      <c r="D60" s="124">
         <f t="shared" si="0"/>
         <v>4.3820784766912535E-3</v>
       </c>
@@ -28633,7 +28974,7 @@
       <c r="C61" s="18">
         <v>113.046127</v>
       </c>
-      <c r="D61" s="143">
+      <c r="D61" s="124">
         <f t="shared" si="0"/>
         <v>-5.2309835556187956E-3</v>
       </c>
@@ -28649,7 +28990,7 @@
       <c r="C62" s="18">
         <v>113.640579</v>
       </c>
-      <c r="D62" s="143">
+      <c r="D62" s="124">
         <f t="shared" si="0"/>
         <v>3.8008993803380964E-2</v>
       </c>
@@ -28662,7 +29003,7 @@
       <c r="C63" s="18">
         <v>109.479378</v>
       </c>
-      <c r="D63" s="143">
+      <c r="D63" s="124">
         <f t="shared" si="0"/>
         <v>-3.1551271101928124E-2</v>
       </c>
@@ -28678,7 +29019,7 @@
       <c r="C64" s="18">
         <v>113.046127</v>
       </c>
-      <c r="D64" s="143">
+      <c r="D64" s="124">
         <f t="shared" si="0"/>
         <v>5.2863511104166427E-3</v>
       </c>
@@ -28697,7 +29038,7 @@
       <c r="C65" s="18">
         <v>112.451668</v>
       </c>
-      <c r="D65" s="143">
+      <c r="D65" s="124">
         <f t="shared" si="0"/>
         <v>-1.0462028708952631E-2</v>
       </c>
@@ -28716,7 +29057,7 @@
       <c r="C66" s="18">
         <v>113.640579</v>
       </c>
-      <c r="D66" s="143">
+      <c r="D66" s="124">
         <f t="shared" si="0"/>
         <v>9.2380853471928148E-2</v>
       </c>
@@ -28728,7 +29069,7 @@
       <c r="C67" s="18">
         <v>104.030182</v>
       </c>
-      <c r="D67" s="143">
+      <c r="D67" s="124">
         <f t="shared" ref="D67:D83" si="10">C67/C68-1</f>
         <v>2.2395392834767325E-2</v>
       </c>
@@ -28740,7 +29081,7 @@
       <c r="C68" s="18">
         <v>101.751419</v>
       </c>
-      <c r="D68" s="143">
+      <c r="D68" s="124">
         <f t="shared" si="10"/>
         <v>-2.0038248120177848E-2</v>
       </c>
@@ -28752,7 +29093,7 @@
       <c r="C69" s="18">
         <v>103.832031</v>
       </c>
-      <c r="D69" s="143">
+      <c r="D69" s="124">
         <f t="shared" si="10"/>
         <v>9.4517016576374679E-2</v>
       </c>
@@ -28764,7 +29105,7 @@
       <c r="C70" s="18">
         <v>94.865616000000003</v>
       </c>
-      <c r="D70" s="143">
+      <c r="D70" s="124">
         <f t="shared" si="10"/>
         <v>1.0554061574848728E-2</v>
       </c>
@@ -28776,7 +29117,7 @@
       <c r="C71" s="18">
         <v>93.874854999999997</v>
       </c>
-      <c r="D71" s="143">
+      <c r="D71" s="124">
         <f t="shared" si="10"/>
         <v>2.8549679711052489E-2</v>
       </c>
@@ -28788,7 +29129,7 @@
       <c r="C72" s="18">
         <v>91.269149999999996</v>
       </c>
-      <c r="D72" s="143">
+      <c r="D72" s="124">
         <f t="shared" si="10"/>
         <v>-1.6232275511077199E-2</v>
       </c>
@@ -28800,7 +29141,7 @@
       <c r="C73" s="18">
         <v>92.775101000000006</v>
       </c>
-      <c r="D73" s="143">
+      <c r="D73" s="124">
         <f t="shared" si="10"/>
         <v>-7.6528651738674291E-2</v>
       </c>
@@ -28812,7 +29153,7 @@
       <c r="C74" s="18">
         <v>100.463432</v>
       </c>
-      <c r="D74" s="143">
+      <c r="D74" s="124">
         <f t="shared" si="10"/>
         <v>-5.2336401010367739E-2</v>
       </c>
@@ -28824,7 +29165,7 @@
       <c r="C75" s="18">
         <v>106.011703</v>
       </c>
-      <c r="D75" s="143">
+      <c r="D75" s="124">
         <f t="shared" si="10"/>
         <v>-2.3310502631396224E-3</v>
       </c>
@@ -28836,7 +29177,7 @@
       <c r="C76" s="18">
         <v>106.259399</v>
       </c>
-      <c r="D76" s="143">
+      <c r="D76" s="124">
         <f t="shared" si="10"/>
         <v>1.8682601031787538E-3</v>
       </c>
@@ -28848,7 +29189,7 @@
       <c r="C77" s="18">
         <v>106.061249</v>
       </c>
-      <c r="D77" s="143">
+      <c r="D77" s="124">
         <f t="shared" si="10"/>
         <v>7.5879456176626725E-2</v>
       </c>
@@ -28860,7 +29201,7 @@
       <c r="C78" s="18">
         <v>98.580978000000002</v>
       </c>
-      <c r="D78" s="143">
+      <c r="D78" s="124">
         <f t="shared" si="10"/>
         <v>-5.0000321469207964E-3</v>
       </c>
@@ -28872,7 +29213,7 @@
       <c r="C79" s="18">
         <v>99.076363000000001</v>
       </c>
-      <c r="D79" s="143">
+      <c r="D79" s="124">
         <f t="shared" si="10"/>
         <v>8.0064970791426937E-4</v>
       </c>
@@ -28884,7 +29225,7 @@
       <c r="C80" s="18">
         <v>98.997101000000001</v>
       </c>
-      <c r="D80" s="143">
+      <c r="D80" s="124">
         <f t="shared" si="10"/>
         <v>3.9966723872114196E-2</v>
       </c>
@@ -28896,7 +29237,7 @@
       <c r="C81" s="18">
         <v>95.192565999999999</v>
       </c>
-      <c r="D81" s="143">
+      <c r="D81" s="124">
         <f t="shared" si="10"/>
         <v>9.8057096922341547E-2</v>
       </c>
@@ -28908,7 +29249,7 @@
       <c r="C82" s="18">
         <v>86.691817999999998</v>
       </c>
-      <c r="D82" s="143">
+      <c r="D82" s="124">
         <f t="shared" si="10"/>
         <v>-5.0152017412236183E-2</v>
       </c>
@@ -28920,7 +29261,7 @@
       <c r="C83" s="18">
         <v>91.269149999999996</v>
       </c>
-      <c r="D83" s="143">
+      <c r="D83" s="124">
         <f t="shared" si="10"/>
         <v>0.11660612097930101</v>
       </c>

--- a/P911.xlsx
+++ b/P911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E96C7C-9F83-4E3A-9CAF-B0A2C8A0C8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB2717-B65A-4430-B506-BD86E878EAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$X$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$16:$X$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$17:$X$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$16:$X$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$17:$X$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$X$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$X$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1628,7 +1628,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1790,6 +1790,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1847,21 +1851,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7085,18 +7074,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7140,7 +7129,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7160,7 +7149,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7191,18 +7180,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7246,7 +7235,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7266,7 +7255,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13890,9 +13879,9 @@
       <c r="E17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13902,9 +13891,9 @@
         <f>C14/(C16*100)</f>
         <v>-1.866401140684409</v>
       </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13914,9 +13903,9 @@
         <f>C15/(C17*100)</f>
         <v>0.7026837392894959</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13926,9 +13915,9 @@
         <f>Model!H4/Model!G3-1</f>
         <v>8.3888477670861494E-3</v>
       </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13938,9 +13927,9 @@
         <f>Model!I4/Model!H4-1</f>
         <v>7.6584291656471848E-2</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13950,9 +13939,9 @@
         <f>Model!G12+Model!G11</f>
         <v>7473</v>
       </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13962,9 +13951,9 @@
         <f>Model!G12</f>
         <v>7374</v>
       </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13974,9 +13963,9 @@
         <f>Model!G18</f>
         <v>0.28635578583765109</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -13986,9 +13975,9 @@
         <f>Model!G19</f>
         <v>0.12721440907969406</v>
       </c>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13998,9 +13987,9 @@
         <f>C12/C23</f>
         <v>8.579764035801464</v>
       </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -14013,9 +14002,9 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -14028,9 +14017,9 @@
       <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -14117,7 +14106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14129,7 +14118,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="149"/>
     <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -14196,7 +14184,7 @@
       <c r="W2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="149" t="s">
+      <c r="X2" t="s">
         <v>62</v>
       </c>
       <c r="Y2" s="13" t="s">
@@ -14257,7 +14245,7 @@
         <f>G3-V3-U3-T3</f>
         <v>10398</v>
       </c>
-      <c r="X3" s="150">
+      <c r="X3" s="10">
         <v>9011</v>
       </c>
       <c r="Y3" s="15">
@@ -14292,8 +14280,8 @@
       <c r="U4" s="41"/>
       <c r="V4" s="41"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="157">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="130">
         <v>8770</v>
       </c>
       <c r="Z4" s="43">
@@ -14351,7 +14339,7 @@
         <f>G5-V5-U5-T5</f>
         <v>7381</v>
       </c>
-      <c r="X5" s="150">
+      <c r="X5" s="10">
         <v>6694</v>
       </c>
       <c r="Y5" s="15">
@@ -14407,7 +14395,7 @@
         <f t="shared" ref="W6:W8" si="0">G6-V6-U6-T6</f>
         <v>859</v>
       </c>
-      <c r="X6" s="149">
+      <c r="X6">
         <v>657</v>
       </c>
       <c r="Y6" s="15">
@@ -14463,7 +14451,7 @@
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="X7" s="149">
+      <c r="X7">
         <v>462</v>
       </c>
       <c r="Y7" s="15">
@@ -14521,7 +14509,7 @@
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="X8" s="149">
+      <c r="X8">
         <v>-84</v>
       </c>
       <c r="Y8" s="15">
@@ -14611,7 +14599,7 @@
         <f t="shared" si="2"/>
         <v>1783</v>
       </c>
-      <c r="X9" s="148">
+      <c r="X9" s="11">
         <f t="shared" si="2"/>
         <v>1282</v>
       </c>
@@ -14666,7 +14654,7 @@
         <f t="shared" ref="W10:W11" si="3">G10-V10-U10-T10</f>
         <v>-3</v>
       </c>
-      <c r="X10" s="149">
+      <c r="X10">
         <v>-7</v>
       </c>
       <c r="Y10" s="15"/>
@@ -14721,7 +14709,7 @@
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="X11" s="149">
+      <c r="X11">
         <v>58</v>
       </c>
       <c r="Y11" s="15">
@@ -14809,7 +14797,7 @@
         <f t="shared" si="5"/>
         <v>1730</v>
       </c>
-      <c r="X12" s="148">
+      <c r="X12" s="11">
         <f t="shared" si="5"/>
         <v>1333</v>
       </c>
@@ -14866,7 +14854,7 @@
         <f>G13-V13-U13-T13</f>
         <v>513</v>
       </c>
-      <c r="X13" s="149">
+      <c r="X13">
         <v>406</v>
       </c>
       <c r="Y13" s="15">
@@ -14948,7 +14936,7 @@
         <f t="shared" si="6"/>
         <v>1217</v>
       </c>
-      <c r="X14" s="148">
+      <c r="X14" s="11">
         <f t="shared" si="6"/>
         <v>927</v>
       </c>
@@ -15010,7 +14998,7 @@
         <f>W14/W16</f>
         <v>908.20895522388082</v>
       </c>
-      <c r="X15" s="150">
+      <c r="X15" s="10">
         <f>X14/X16</f>
         <v>917.82178217821786</v>
       </c>
@@ -15087,7 +15075,7 @@
         <f>G16-V16-U16-T16</f>
         <v>1.3399999999999996</v>
       </c>
-      <c r="X16" s="151">
+      <c r="X16" s="50">
         <v>1.01</v>
       </c>
       <c r="Y16" s="49">
@@ -15122,7 +15110,7 @@
       <c r="U17" s="51"/>
       <c r="V17" s="51"/>
       <c r="W17" s="50"/>
-      <c r="X17" s="151"/>
+      <c r="X17" s="50"/>
       <c r="Y17" s="49">
         <v>0.94</v>
       </c>
@@ -15300,7 +15288,7 @@
         <f t="shared" si="11"/>
         <v>0.11704173879592229</v>
       </c>
-      <c r="X19" s="152">
+      <c r="X19" s="4">
         <f t="shared" si="11"/>
         <v>0.10287426478748196</v>
       </c>
@@ -15308,7 +15296,7 @@
         <f t="shared" ref="Y19:Z19" si="12">Y14/Y3</f>
         <v>0.11669538579360521</v>
       </c>
-      <c r="Z19" s="152" t="e">
+      <c r="Z19" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -15381,7 +15369,7 @@
         <f t="shared" si="13"/>
         <v>0.29653179190751444</v>
       </c>
-      <c r="X20" s="152">
+      <c r="X20" s="4">
         <f>X13/X12</f>
         <v>0.30457614403600902</v>
       </c>
@@ -15389,7 +15377,7 @@
         <f t="shared" ref="Y20:Z20" si="14">Y13/Y12</f>
         <v>0.3054131054131054</v>
       </c>
-      <c r="Z20" s="152" t="e">
+      <c r="Z20" s="4" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -15459,11 +15447,11 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X21" s="153">
+      <c r="X21" s="129">
         <f t="shared" si="15"/>
         <v>-0.10755670000990392</v>
       </c>
-      <c r="Y21" s="158">
+      <c r="Y21" s="131">
         <f>Y4/U3-1</f>
         <v>-0.15134507451132184</v>
       </c>
@@ -15546,7 +15534,7 @@
         <f t="shared" si="16"/>
         <v>8.2612040777072515E-2</v>
       </c>
-      <c r="X22" s="152">
+      <c r="X22" s="4">
         <f t="shared" si="16"/>
         <v>7.2910886694040611E-2</v>
       </c>
@@ -15554,7 +15542,7 @@
         <f t="shared" ref="Y22:Z22" si="17">Y6/Y3</f>
         <v>6.9117365498755509E-2</v>
       </c>
-      <c r="Z22" s="152" t="e">
+      <c r="Z22" s="4" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -15633,7 +15621,7 @@
         <f t="shared" si="18"/>
         <v>3.9238315060588572E-2</v>
       </c>
-      <c r="X23" s="152">
+      <c r="X23" s="4">
         <f t="shared" si="18"/>
         <v>5.1270669182110755E-2</v>
       </c>
@@ -15641,7 +15629,7 @@
         <f t="shared" ref="Y23:Z23" si="19">Y7/Y3</f>
         <v>4.6907907332950409E-2</v>
       </c>
-      <c r="Z23" s="152" t="e">
+      <c r="Z23" s="4" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -15669,7 +15657,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="152"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -15736,15 +15724,15 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X25" s="153">
+      <c r="X25" s="129">
         <f t="shared" si="20"/>
         <v>-0.34115138592750538</v>
       </c>
-      <c r="Y25" s="159">
+      <c r="Y25" s="7">
         <f t="shared" ref="Y25" si="21">Y14/U14-1</f>
         <v>-0.10367647058823526</v>
       </c>
-      <c r="Z25" s="156">
+      <c r="Z25" s="4">
         <f t="shared" ref="Z25" si="22">Z14/V14-1</f>
         <v>-1</v>
       </c>
@@ -15817,11 +15805,11 @@
         <f t="shared" si="26"/>
         <v>-3733</v>
       </c>
-      <c r="W29" s="148">
+      <c r="W29" s="11">
         <f t="shared" si="26"/>
         <v>276</v>
       </c>
-      <c r="X29" s="148">
+      <c r="X29" s="11">
         <f>X35+X34-X44-X45</f>
         <v>-62</v>
       </c>
@@ -15829,11 +15817,11 @@
         <f t="shared" ref="Y29:AA29" si="27">Y35+Y34-Y44-Y45</f>
         <v>-1470</v>
       </c>
-      <c r="Z29" s="148">
+      <c r="Z29" s="11">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="148">
+      <c r="AA29" s="11">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -15877,14 +15865,14 @@
         <f>G30</f>
         <v>5947</v>
       </c>
-      <c r="X30" s="150">
+      <c r="X30" s="10">
         <v>6531</v>
       </c>
       <c r="Y30" s="15">
         <v>6791</v>
       </c>
-      <c r="Z30" s="150"/>
-      <c r="AA30" s="150"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -15925,14 +15913,14 @@
         <f t="shared" ref="W31:W36" si="29">G31</f>
         <v>1669</v>
       </c>
-      <c r="X31" s="150">
+      <c r="X31" s="10">
         <v>1678</v>
       </c>
       <c r="Y31" s="15">
         <v>1701</v>
       </c>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -15973,14 +15961,14 @@
         <f t="shared" si="29"/>
         <v>4537</v>
       </c>
-      <c r="X32" s="150">
+      <c r="X32" s="10">
         <v>4168</v>
       </c>
       <c r="Y32" s="15">
         <v>4344</v>
       </c>
-      <c r="Z32" s="150"/>
-      <c r="AA32" s="150"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -16021,14 +16009,14 @@
         <f t="shared" si="29"/>
         <v>235</v>
       </c>
-      <c r="X33" s="150">
+      <c r="X33" s="10">
         <v>350</v>
       </c>
       <c r="Y33" s="15">
         <v>292</v>
       </c>
-      <c r="Z33" s="150"/>
-      <c r="AA33" s="150"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -16069,14 +16057,14 @@
         <f t="shared" si="29"/>
         <v>1826</v>
       </c>
-      <c r="X34" s="150">
+      <c r="X34" s="10">
         <v>1682</v>
       </c>
       <c r="Y34" s="15">
         <v>1895</v>
       </c>
-      <c r="Z34" s="150"/>
-      <c r="AA34" s="150"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -16117,14 +16105,14 @@
         <f t="shared" si="29"/>
         <v>5820</v>
       </c>
-      <c r="X35" s="150">
+      <c r="X35" s="10">
         <v>6164</v>
       </c>
       <c r="Y35" s="15">
         <v>4590</v>
       </c>
-      <c r="Z35" s="150"/>
-      <c r="AA35" s="150"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -16165,14 +16153,14 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="X36" s="150">
+      <c r="X36" s="10">
         <v>6</v>
       </c>
       <c r="Y36" s="15">
         <v>6</v>
       </c>
-      <c r="Z36" s="150"/>
-      <c r="AA36" s="150"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
     </row>
     <row r="37" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -16246,7 +16234,7 @@
         <f t="shared" si="32"/>
         <v>20040</v>
       </c>
-      <c r="X37" s="148">
+      <c r="X37" s="11">
         <f t="shared" si="32"/>
         <v>20579</v>
       </c>
@@ -16254,11 +16242,11 @@
         <f t="shared" si="32"/>
         <v>19619</v>
       </c>
-      <c r="Z37" s="148">
+      <c r="Z37" s="11">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="148">
+      <c r="AA37" s="11">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -16302,14 +16290,14 @@
         <f t="shared" ref="W38:W42" si="34">G38</f>
         <v>8554</v>
       </c>
-      <c r="X38" s="150">
+      <c r="X38" s="10">
         <v>9041</v>
       </c>
       <c r="Y38" s="15">
         <v>9110</v>
       </c>
-      <c r="Z38" s="150"/>
-      <c r="AA38" s="150"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -16350,14 +16338,14 @@
         <f t="shared" si="34"/>
         <v>9394</v>
       </c>
-      <c r="X39" s="150">
+      <c r="X39" s="10">
         <v>9454</v>
       </c>
       <c r="Y39" s="15">
         <v>9570</v>
       </c>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -16398,14 +16386,14 @@
         <f t="shared" si="34"/>
         <v>4190</v>
       </c>
-      <c r="X40" s="150">
+      <c r="X40" s="10">
         <v>4260</v>
       </c>
       <c r="Y40" s="15">
         <v>4491</v>
       </c>
-      <c r="Z40" s="150"/>
-      <c r="AA40" s="150"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -16446,14 +16434,14 @@
         <f t="shared" si="34"/>
         <v>4676</v>
       </c>
-      <c r="X41" s="150">
+      <c r="X41" s="10">
         <v>4728</v>
       </c>
       <c r="Y41" s="15">
         <v>4744</v>
       </c>
-      <c r="Z41" s="150"/>
-      <c r="AA41" s="150"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -16494,14 +16482,14 @@
         <f t="shared" si="34"/>
         <v>3592</v>
       </c>
-      <c r="X42" s="150">
+      <c r="X42" s="10">
         <v>3901</v>
       </c>
       <c r="Y42" s="15">
         <v>3934</v>
       </c>
-      <c r="Z42" s="150"/>
-      <c r="AA42" s="150"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -16575,7 +16563,7 @@
         <f t="shared" si="35"/>
         <v>50446</v>
       </c>
-      <c r="X43" s="148">
+      <c r="X43" s="11">
         <f t="shared" si="35"/>
         <v>51963</v>
       </c>
@@ -16583,11 +16571,11 @@
         <f t="shared" ref="Y43" si="36">SUM(Y37:Y42)</f>
         <v>51468</v>
       </c>
-      <c r="Z43" s="148">
+      <c r="Z43" s="11">
         <f t="shared" ref="Z43" si="37">SUM(Z37:Z42)</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="148">
+      <c r="AA43" s="11">
         <f t="shared" ref="AA43" si="38">SUM(AA37:AA42)</f>
         <v>0</v>
       </c>
@@ -16631,14 +16619,14 @@
         <f t="shared" ref="W44:W47" si="40">G44</f>
         <v>3880</v>
       </c>
-      <c r="X44" s="150">
+      <c r="X44" s="10">
         <v>3971</v>
       </c>
       <c r="Y44" s="15">
         <v>4072</v>
       </c>
-      <c r="Z44" s="150"/>
-      <c r="AA44" s="150"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -16679,14 +16667,14 @@
         <f t="shared" si="40"/>
         <v>3490</v>
       </c>
-      <c r="X45" s="150">
+      <c r="X45" s="10">
         <v>3937</v>
       </c>
       <c r="Y45" s="15">
         <v>3883</v>
       </c>
-      <c r="Z45" s="150"/>
-      <c r="AA45" s="150"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -16727,14 +16715,14 @@
         <f t="shared" si="40"/>
         <v>6192</v>
       </c>
-      <c r="X46" s="150">
+      <c r="X46" s="10">
         <v>6170</v>
       </c>
       <c r="Y46" s="15">
         <v>6426</v>
       </c>
-      <c r="Z46" s="150"/>
-      <c r="AA46" s="150"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -16775,14 +16763,14 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="X47" s="150">
+      <c r="X47" s="10">
         <v>5</v>
       </c>
       <c r="Y47" s="15">
         <v>6</v>
       </c>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="150"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -16856,7 +16844,7 @@
         <f t="shared" si="41"/>
         <v>13567</v>
       </c>
-      <c r="X48" s="148">
+      <c r="X48" s="11">
         <f t="shared" si="41"/>
         <v>14083</v>
       </c>
@@ -16864,11 +16852,11 @@
         <f t="shared" ref="Y48" si="42">SUM(Y44:Y47)</f>
         <v>14387</v>
       </c>
-      <c r="Z48" s="148">
+      <c r="Z48" s="11">
         <f t="shared" ref="Z48" si="43">SUM(Z44:Z47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="148">
+      <c r="AA48" s="11">
         <f t="shared" ref="AA48" si="44">SUM(AA44:AA47)</f>
         <v>0</v>
       </c>
@@ -16912,14 +16900,14 @@
         <f t="shared" ref="W49:W51" si="46">G49</f>
         <v>4315</v>
       </c>
-      <c r="X49" s="150">
+      <c r="X49" s="10">
         <v>4287</v>
       </c>
       <c r="Y49" s="15">
         <v>4187</v>
       </c>
-      <c r="Z49" s="150"/>
-      <c r="AA49" s="150"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -16960,14 +16948,14 @@
         <f t="shared" si="46"/>
         <v>6537</v>
       </c>
-      <c r="X50" s="150">
+      <c r="X50" s="10">
         <v>6546</v>
       </c>
       <c r="Y50" s="15">
         <v>6525</v>
       </c>
-      <c r="Z50" s="150"/>
-      <c r="AA50" s="150"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -17008,14 +16996,14 @@
         <f t="shared" si="46"/>
         <v>4360</v>
       </c>
-      <c r="X51" s="150">
+      <c r="X51" s="10">
         <v>4519</v>
       </c>
       <c r="Y51" s="15">
         <v>4596</v>
       </c>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -17089,7 +17077,7 @@
         <f t="shared" si="47"/>
         <v>28779</v>
       </c>
-      <c r="X52" s="148">
+      <c r="X52" s="11">
         <f t="shared" si="47"/>
         <v>29435</v>
       </c>
@@ -17097,11 +17085,11 @@
         <f t="shared" ref="Y52" si="48">SUM(Y48:Y51)</f>
         <v>29695</v>
       </c>
-      <c r="Z52" s="148">
+      <c r="Z52" s="11">
         <f t="shared" ref="Z52" si="49">SUM(Z48:Z51)</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="148">
+      <c r="AA52" s="11">
         <f t="shared" ref="AA52" si="50">SUM(AA48:AA51)</f>
         <v>0</v>
       </c>
@@ -17178,7 +17166,7 @@
         <f t="shared" si="51"/>
         <v>21667</v>
       </c>
-      <c r="X53" s="150">
+      <c r="X53" s="10">
         <f t="shared" si="51"/>
         <v>22528</v>
       </c>
@@ -17186,11 +17174,11 @@
         <f t="shared" ref="Y53" si="52">Y43-Y52</f>
         <v>21773</v>
       </c>
-      <c r="Z53" s="150">
+      <c r="Z53" s="10">
         <f t="shared" ref="Z53" si="53">Z43-Z52</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="150">
+      <c r="AA53" s="10">
         <f t="shared" ref="AA53" si="54">AA43-AA52</f>
         <v>0</v>
       </c>
@@ -17204,17 +17192,14 @@
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
       <c r="G55" s="54"/>
-      <c r="X55" s="154"/>
       <c r="Y55" s="16"/>
     </row>
     <row r="73" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G73" s="42"/>
-      <c r="X73" s="155"/>
       <c r="Y73" s="42"/>
     </row>
     <row r="74" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="16"/>
-      <c r="X74" s="154"/>
       <c r="Y74" s="16"/>
     </row>
   </sheetData>
@@ -17258,8 +17243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
@@ -17754,11 +17739,11 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="160">
+      <c r="R11" s="132">
         <f>R5/N5-1</f>
         <v>-0.23519775333489357</v>
       </c>
-      <c r="S11" s="160">
+      <c r="S11" s="132">
         <f>S5/O5-1</f>
         <v>-0.41198201807094847</v>
       </c>
@@ -18195,7 +18180,7 @@
         <f>((R15+R16)/(N15+N16))-1</f>
         <v>2.822265005183322E-2</v>
       </c>
-      <c r="S22" s="160">
+      <c r="S22" s="132">
         <f>((S15+S16)/(O15+O16))-1</f>
         <v>-4.6842016380984508E-2</v>
       </c>
@@ -18224,7 +18209,7 @@
         <f>R18/N18-1</f>
         <v>-0.53715034965034958</v>
       </c>
-      <c r="S23" s="160">
+      <c r="S23" s="132">
         <f>S18/O18-1</f>
         <v>-0.47935286797149002</v>
       </c>
@@ -18629,11 +18614,11 @@
         <f t="shared" ref="Q37" si="28">Q32/M32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="160">
+      <c r="R37" s="132">
         <f>R32/N32-1</f>
         <v>-0.50285049447353114</v>
       </c>
-      <c r="S37" s="160">
+      <c r="S37" s="132">
         <f>S32/O32-1</f>
         <v>-0.5286153255233339</v>
       </c>
@@ -27344,14 +27329,14 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -27854,10 +27839,10 @@
         <f t="shared" si="0"/>
         <v>-1.5645333076088619E-2</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="146"/>
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -27871,8 +27856,8 @@
         <f t="shared" si="0"/>
         <v>-4.0050124153939382E-2</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="84"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -28445,14 +28430,14 @@
         <f t="shared" si="0"/>
         <v>3.9420018838604687E-2</v>
       </c>
-      <c r="H43" s="145" t="s">
+      <c r="H43" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
